--- a/cedric/k14.xlsx
+++ b/cedric/k14.xlsx
@@ -14,20 +14,18 @@
     <sheet name="4 weeks" sheetId="5" r:id="rId5"/>
     <sheet name="8 weeks" sheetId="6" r:id="rId6"/>
     <sheet name="averages" sheetId="7" r:id="rId7"/>
+    <sheet name="extinction" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="gamma">averages!$B$13</definedName>
-    <definedName name="lambda">averages!$D$13</definedName>
-    <definedName name="mu">averages!$C$13</definedName>
-    <definedName name="r_">averages!$A$13</definedName>
-    <definedName name="y0">averages!$C$15</definedName>
+    <definedName name="lambda">averages!$B$12</definedName>
+    <definedName name="theta">extinction!$B$21</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="37">
   <si>
     <t>K14CREER RosaYFP 3,5 days</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -137,31 +135,31 @@
     <t>t</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
-    <t>gamma</t>
+    <t>b</t>
   </si>
   <si>
-    <t>r</t>
+    <t>s</t>
   </si>
   <si>
-    <t>mu</t>
+    <t>av</t>
   </si>
   <si>
-    <t>y</t>
+    <t>err</t>
   </si>
   <si>
-    <t>dx</t>
+    <t>p_0</t>
   </si>
   <si>
-    <t>n</t>
+    <t>theory</t>
   </si>
   <si>
-    <t>n'</t>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>av_fixed</t>
   </si>
 </sst>
 </file>
@@ -199,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,19 +205,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +310,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -268,7 +334,7 @@
                     <c:v>0.40470132236373124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21990315972754906</c:v>
+                    <c:v>0.18569816285575277</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.20474843570079343</c:v>
@@ -292,7 +358,7 @@
                     <c:v>0.40470132236373124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.21990315972754906</c:v>
+                    <c:v>0.18569816285575277</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.20474843570079343</c:v>
@@ -341,7 +407,7 @@
                   <c:v>2.6470588235294117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.642105263157895</c:v>
+                  <c:v>2.521276595744681</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.9333333333333331</c:v>
@@ -361,6 +427,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -381,7 +451,7 @@
                     <c:v>0.39856616244308202</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.30298800764285622</c:v>
+                    <c:v>0.22023053165693474</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.18058297320126895</c:v>
@@ -405,7 +475,7 @@
                     <c:v>0.39856616244308202</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.30298800764285622</c:v>
+                    <c:v>0.22023053165693474</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.18058297320126895</c:v>
@@ -454,7 +524,7 @@
                   <c:v>1.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2105263157894739</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0133333333333332</c:v>
@@ -474,6 +544,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -494,7 +568,7 @@
                     <c:v>0.76456875227341092</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.47795018202271888</c:v>
+                    <c:v>0.34812591811377863</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.32543433670635857</c:v>
@@ -518,7 +592,7 @@
                     <c:v>0.76456875227341092</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.47795018202271888</c:v>
+                    <c:v>0.34812591811377863</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.32543433670635857</c:v>
@@ -567,7 +641,7 @@
                   <c:v>4.0588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8526315789473689</c:v>
+                  <c:v>4.5212765957446805</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.9466666666666663</c:v>
@@ -587,839 +661,800 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>averages!$E$15:$E$147</c:f>
+              <c:f>averages!$B$14:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9000000000000101</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.2000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.3000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.4000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.8000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.9000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.0000000000000107</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.1000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.2000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.3000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.4000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.5000000000000107</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.6000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.8000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.9000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>13.2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>averages!$G$15:$G$147</c:f>
+              <c:f>averages!$C$14:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0863939264394273</c:v>
+                  <c:v>1.8212072294977899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1523313233279591</c:v>
+                  <c:v>1.95743401905074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2058151241784654</c:v>
+                  <c:v>2.02984053288275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2516815406983166</c:v>
+                  <c:v>2.0797250434458299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2928504058722705</c:v>
+                  <c:v>2.12160821488242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3311029593369914</c:v>
+                  <c:v>2.16065069405788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3675402139855151</c:v>
+                  <c:v>2.1986904662164402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4028508749784312</c:v>
+                  <c:v>2.23637723024886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4374694985861327</c:v>
+                  <c:v>2.27394187610561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4716714683373442</c:v>
+                  <c:v>2.3114634462176902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5056311389907071</c:v>
+                  <c:v>2.3489707485175302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5394581071755613</c:v>
+                  <c:v>2.3864731303898599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5732202207191512</c:v>
+                  <c:v>2.4239739105818399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.606958379912002</c:v>
+                  <c:v>2.4614741091789698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6406961592622542</c:v>
+                  <c:v>2.4989742471816299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6744461046050092</c:v>
+                  <c:v>2.5364741977589098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7082138657128256</c:v>
+                  <c:v>2.57397420230927</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.742000904264204</c:v>
+                  <c:v>2.6114742759501302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7758062571450437</c:v>
+                  <c:v>2.64897418592366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8096276709479795</c:v>
+                  <c:v>2.68647419529391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.843462317869766</c:v>
+                  <c:v>2.7239742820740398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.877307233996202</c:v>
+                  <c:v>2.7614741912639902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9111595749739478</c:v>
+                  <c:v>2.7989741765362002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9450167531601346</c:v>
+                  <c:v>2.8364742707379502</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9788764993975518</c:v>
+                  <c:v>2.8739742425568999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0127368783007462</c:v>
+                  <c:v>2.9114741483719699</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0465962762058254</c:v>
+                  <c:v>2.94897418087902</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0804533743018241</c:v>
+                  <c:v>2.9864742926244898</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1143071149558321</c:v>
+                  <c:v>3.02397421618118</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1481566662059741</c:v>
+                  <c:v>3.06147412937373</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1820013873693749</c:v>
+                  <c:v>3.0989741620723099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2158407973801753</c:v>
+                  <c:v>3.1364742422671799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2496745466155281</c:v>
+                  <c:v>3.1739741867113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2835023924323643</c:v>
+                  <c:v>3.2114741254752399</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.3173241783184566</c:v>
+                  <c:v>3.2489741501137299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.3511398163844826</c:v>
+                  <c:v>3.2864742090753398</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3849492728390453</c:v>
+                  <c:v>3.32397416796926</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.418752556061643</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4525497068962685</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.4863407908154094</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.5201258916408094</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.5539051065471581</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.5876785421141162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.6214463112287496</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.6552085306732618</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.6889653192617251</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.7227167964142036</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.7564630810774982</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.7902042909192217</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8239405417362726</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8576719470306311</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.891398617714998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.9251206619185774</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.9588381848695917</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.9925512888360957</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.0262600731106928</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.0599646340278972</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.0936650650054314</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.1273614566026988</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.1610538965912527</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.1947424700332849</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.2284272593651271</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.262108344483468</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.2957858028326088</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.3294597094914797</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.3631301372595122</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.3967971567407127</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.4304608364254809</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.4641212427698789</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.4977784402721515</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.5314324915464121</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.56508345739346</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.5987313968687102</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.6323763673473191</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.6660184245865426</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.699657622785427</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.7332940146419178</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.7669276514074825</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.8005585829393742</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.8341868577505878</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.8678125230577045</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.9014356248266</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.9350562078162161</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.9686743156204662</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.0022899907083254</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.0359032744622505</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.0695142072149402</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.1031228282846088</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.1367291760087657</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.1703332877766073</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.2039352000600836</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.2375349484437095</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.2711325676531713</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.304728091582791</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.3383215533218964</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.3719129851801588</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.4055024187119409</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.439089884739694</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.4726754133764679</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.5062590340475399</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.5398407755112613</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.5734206658790688</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4.6069987326347963</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.6405750026532422</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4.6741495022180679</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4.7077222570390376</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>4.7412932922686331</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4.7748626325180696</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4.8084303018727494</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4.8419963239071482</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4.875560721699201</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4.9091235178441659</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>4.9426847344680098</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.9762443932403491</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5.009802515386923</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5.043359121701652</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5.0769142325583028</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>5.1104678679217441</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5.1440200473588273</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5.1775707900489234</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>5.2111201147940953</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5.2446680400289507</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5.2782145838301684</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.3117597639257141</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.3453035977037766</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5.3788461022213996</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.412387294212853</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.4459271900977404</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.4794658059888492</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.513003157699754</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.5465392607521995</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5.5800741303832417</c:v>
+                  <c:v>3.3614741235741001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84538112"/>
-        <c:axId val="84528128"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>suprabasal (theory)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>averages!$B$14:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>averages!$D$14:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16661701637333101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47748098552738599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.808841720676306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1232250364659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4107909206643701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.67094959955095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9062056961160401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.11967535645153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3143502064516501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.49292780660701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6577629437391601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8108910959820101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9540115408631999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0885781295671202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.21583212673481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3368231668089301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4524391674717898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.56343814748063</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6704650500365301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7740672306560401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8747101933649799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9727920178285001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0686530023948597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1625823356948599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2548270181458303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3455997258044103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4350828157010698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5234318185912397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6107801841558098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6972439020402996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.78292283149979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8679025769505397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.95225711867442</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0360513263636602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1193414697105704</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2021761490954797</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.2845977005946398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3666436881039301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>total (theory)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>averages!$B$14:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>averages!$E$14:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9878242458711299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.43491500457813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8386822535590501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2029500799117301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5323991355467901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.83160029360883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.10489616233248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3560525867003896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5882920825572597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8043912528246899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0067336922566801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.19736422637187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3779854514450403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5500522387460904</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7148063739164403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8732973645678399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0264133697810696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1749124234307597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3194392359601803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4605414259499501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5986844754390299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.7342662090924899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8676271789310501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9990566064328101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1288012607027298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2570738741763803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3840569965800897</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5099061112157299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.6347544003369903</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7587180314140198</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8818969935721004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.00437681921772</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.1262313053857191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2475254518389001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3683156198242905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.4886503581708208</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6085718685638994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.72811781167802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="56713216"/>
+        <c:axId val="56714752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84538112"/>
+        <c:axId val="56713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84528128"/>
+        <c:crossAx val="56714752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84528128"/>
+        <c:axId val="56714752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1462,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84538112"/>
+        <c:crossAx val="56713216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1440,8 +1475,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1450,871 +1485,239 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>theory</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>averages!$A$15:$A$147</c:f>
+              <c:f>extinction!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9000000000000101</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.2000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.3000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.4000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.8000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.9000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.0000000000000107</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.1000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.2000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.3000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.4000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.5000000000000107</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.6000000000000103</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.8000000000000096</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>9.9000000000000092</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="120">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>13.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>averages!$B$15:$B$147</c:f>
+              <c:f>extinction!$B$17:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="133"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.99611947535375467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98306842728143118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6793798682647673E-3</c:v>
+                  <c:v>0.94673232545962849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6386717152175194E-3</c:v>
+                  <c:v>0.88010426221084248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4976875022000636E-2</c:v>
+                  <c:v>0.79149436495122449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.621632977370348E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9718381692417974E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4861779787220809E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1110095297740927E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8028304570758789E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1052774534217243</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12260120690308055</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13981067774526548</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1567702906134428</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.173385680468434</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.18959380322732869</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20535508389452117</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22064730230800539</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23546089838856463</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24979540636602016</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26365677094794898</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27705534372895052</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.29000439928869204</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.30251904534180279</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.31461542979961465</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.32631017029992498</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33761994954225788</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.34856123353634133</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.3591500804453101</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3694020157721869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.37933195576149398</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.38895416551639322</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.39828224181799016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.40732911325098448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.41610705219937827</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.42462769473868051</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.43290206553976213</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.44094060570736365</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.44875320207369246</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.45634921690770042</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.46373751732348989</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.47092650390688623</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.47792413825003049</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.48473796920672862</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.49137515776880641</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.49784250052522705</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.5041464517082036</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.51029314385914493</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.51628840716584345</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.52213778753367746</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.52784656345982905</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.53341976178215822</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53886217237451806</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54417836185877655</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54937268640120107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55444930365758227</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.55941218392783554</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56426512057700828</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.56901173977580699</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.57365550961001488</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.57819974860457646</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.58264763370470996</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.58700220775319423</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.59126638649997343</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.59544296517743334</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.59953462467211471</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.60354393732124501</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.60747337236026755</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.6113253010455254</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.6151020014743962</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.61880566312346563</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.62243839112376065</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.62600221029062242</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.62949906892447771</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.63293084239755604</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.63629933654048354</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.63960629084166354</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.6428533814714108</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.64604222414194368</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.64917437681354218</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.65225134225644399</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.65527457047738635</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.65824546101906078</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.66116536514019486</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.66403558788343442</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.66685739003770883</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.66963199000131923</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.67236056555156054</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.67504425552631631</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.67768416142269061</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.68028134891742265</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.68283684931351629</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.68535166091723354</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.68782675034933516</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.69026305379420705</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.69266147819028145</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.69502290236495057</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.6973481781169717</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.69963813124918006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.70189356255415269</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.70411524875530807</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.7063039434057784</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.70846037774724735</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.71058526153082491</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.71267928380190115</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.71474311365081344</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.71677740093105247</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.71878277694663539</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.72075985511018059</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.72270923157313205</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.72463148582950054</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.72652718129441185</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.72839686585868102</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.73024107242056546</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.73206031939578542</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.73385511120684255</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.73562593875261051</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.73737327985912138</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.73909759971242028</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.74079935127431573</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.74247897568181109</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.74413690263095833</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.74577355074584029</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.74738932793334978</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.74898463172439889</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.75055984960216227</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.75211535931792461</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.75365152919507661</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.75516871842177469</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.75666727733275563</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.75814754768077197</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.75960986289809262</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.76105454834848951</c:v>
+                  <c:v>0.73637321064435501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89919488"/>
-        <c:axId val="88306048"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>experiment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>extinction!$B$3:$H$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.3984909129208186E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7888386123679787E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4307152760786651E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.6035864982217519E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6782336913003004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7979539641944449E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>extinction!$B$3:$G$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.3984909129208186E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7888386123679787E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4307152760786651E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.6035864982217519E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6782336913003004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7979539641944449E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>extinction!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>extinction!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.99611947535375467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93587097974044653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87738244012238831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91007572204759668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78905072253385833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81599336061322525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="56932608"/>
+        <c:axId val="56942592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89919488"/>
+        <c:axId val="56932608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88306048"/>
+        <c:crossAx val="56942592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88306048"/>
+        <c:axId val="56942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0"/>
+          <c:min val="0.6000000000000002"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89919488"/>
+        <c:crossAx val="56932608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2324,20 +1727,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2352,22 +1755,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2376,7 +1784,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2673,42 +2081,42 @@
   <dimension ref="A1:T223"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
@@ -7472,18 +6880,6 @@
       <c r="D99">
         <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="M99" t="s">
-        <v>18</v>
-      </c>
-      <c r="N99">
-        <v>14</v>
-      </c>
-      <c r="O99">
-        <v>22</v>
-      </c>
-      <c r="P99">
-        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -9347,7 +8743,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10414,28 +9810,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:14">
       <c r="A1">
         <f>MAX('k14'!N:N)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1">
         <f>MAX('k14'!O:O)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -10478,38 +9874,8 @@
       <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
-      <c r="T2">
-        <v>18</v>
-      </c>
-      <c r="U2">
-        <v>19</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2">
-        <v>21</v>
-      </c>
-      <c r="X2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10565,48 +9931,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>COUNTIFS('k14'!$N:$N,$A3,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10662,48 +9988,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>COUNTIFS('k14'!$N:$N,$A4,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10759,48 +10045,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f>COUNTIFS('k14'!$N:$N,$A5,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10856,48 +10102,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>COUNTIFS('k14'!$N:$N,$A6,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10953,48 +10159,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>COUNTIFS('k14'!$N:$N,$A7,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11050,48 +10216,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>COUNTIFS('k14'!$N:$N,$A8,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11147,48 +10273,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,N$2)</f>
         <v>1</v>
       </c>
-      <c r="O9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>COUNTIFS('k14'!$N:$N,$A9,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11244,48 +10330,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f>COUNTIFS('k14'!$N:$N,$A10,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11341,48 +10387,8 @@
         <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,N$2)</f>
         <v>0</v>
       </c>
-      <c r="O11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f>COUNTIFS('k14'!$N:$N,$A11,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -11437,531 +10443,6 @@
       <c r="N12">
         <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,N$2)</f>
         <v>0</v>
-      </c>
-      <c r="O12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>COUNTIFS('k14'!$N:$N,$A12,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,D$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,H$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,I$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,N$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f>COUNTIFS('k14'!$N:$N,$A13,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,D$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,H$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,I$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,N$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f>COUNTIFS('k14'!$N:$N,$A14,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,D$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,H$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,I$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,N$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>COUNTIFS('k14'!$N:$N,$A15,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,D$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,H$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,I$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,N$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f>COUNTIFS('k14'!$N:$N,$A16,'k14'!$O:$O,X$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,D$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,H$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,I$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,N$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,O$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,P$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,Q$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,R$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,S$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,T$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,U$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,V$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,W$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f>COUNTIFS('k14'!$N:$N,$A17,'k14'!$O:$O,X$2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11975,7 +10456,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12484,19 +10965,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T147"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="e">
-        <f>AVERAGE('k14'!A:A)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="B1">
         <f>SUM('k14'!B:B)/COUNT('k14'!B:B)</f>
         <v>1.6728110599078341</v>
@@ -12509,10 +10986,6 @@
         <f>SUM('k14'!D:D)/COUNT('k14'!D:D)</f>
         <v>1.8894009216589862</v>
       </c>
-      <c r="E1" t="e">
-        <f>AVERAGE('k14'!E:E)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F1">
         <f>AVERAGE('k14'!F:F)</f>
         <v>2</v>
@@ -12525,10 +10998,6 @@
         <f>AVERAGE('k14'!H:H)</f>
         <v>2.358490566037736</v>
       </c>
-      <c r="I1" t="e">
-        <f>AVERAGE('k14'!I:I)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J1">
         <f>AVERAGE('k14'!J:J)</f>
         <v>2.6470588235294117</v>
@@ -12541,25 +11010,17 @@
         <f>AVERAGE('k14'!L:L)</f>
         <v>4.0588235294117645</v>
       </c>
-      <c r="M1" t="e">
-        <f>AVERAGE('k14'!M:M)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N1">
         <f>AVERAGE('k14'!N:N)</f>
-        <v>2.642105263157895</v>
+        <v>2.521276595744681</v>
       </c>
       <c r="O1">
         <f>AVERAGE('k14'!O:O)</f>
-        <v>2.2105263157894739</v>
+        <v>2</v>
       </c>
       <c r="P1">
         <f>AVERAGE('k14'!P:P)</f>
-        <v>4.8526315789473689</v>
-      </c>
-      <c r="Q1" t="e">
-        <f>AVERAGE('k14'!Q:Q)</f>
-        <v>#DIV/0!</v>
+        <v>4.5212765957446805</v>
       </c>
       <c r="R1">
         <f>AVERAGE('k14'!R:R)</f>
@@ -12575,10 +11036,6 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" t="e">
-        <f>SQRT((SUMSQ('k14'!A:A)/COUNT('k14'!A:A)-A1*A1)/(COUNT('k14'!A:A)-1))</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="B2">
         <f>SQRT((SUMSQ('k14'!B:B)/COUNT('k14'!B:B)-B1*B1)/(COUNT('k14'!B:B)-1))</f>
         <v>5.5766927375334403E-2</v>
@@ -12591,10 +11048,6 @@
         <f>SQRT((SUMSQ('k14'!D:D)/COUNT('k14'!D:D)-D1*D1)/(COUNT('k14'!D:D)-1))</f>
         <v>6.4557261410699993E-2</v>
       </c>
-      <c r="E2" t="e">
-        <f>SQRT((SUMSQ('k14'!E:E)/COUNT('k14'!E:E)-E1*E1)/(COUNT('k14'!E:E)-1))</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F2">
         <f>SQRT((SUMSQ('k14'!F:F)/COUNT('k14'!F:F)-F1*F1)/(COUNT('k14'!F:F)-1))</f>
         <v>0.14754891442515133</v>
@@ -12607,10 +11060,6 @@
         <f>SQRT((SUMSQ('k14'!H:H)/COUNT('k14'!H:H)-H1*H1)/(COUNT('k14'!H:H)-1))</f>
         <v>0.17684203594396911</v>
       </c>
-      <c r="I2" t="e">
-        <f>SQRT((SUMSQ('k14'!I:I)/COUNT('k14'!I:I)-I1*I1)/(COUNT('k14'!I:I)-1))</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J2">
         <f>SQRT((SUMSQ('k14'!J:J)/COUNT('k14'!J:J)-J1*J1)/(COUNT('k14'!J:J)-1))</f>
         <v>0.40470132236373124</v>
@@ -12623,25 +11072,17 @@
         <f>SQRT((SUMSQ('k14'!L:L)/COUNT('k14'!L:L)-L1*L1)/(COUNT('k14'!L:L)-1))</f>
         <v>0.76456875227341092</v>
       </c>
-      <c r="M2" t="e">
-        <f>SQRT((SUMSQ('k14'!M:M)/COUNT('k14'!M:M)-M1*M1)/(COUNT('k14'!M:M)-1))</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N2">
         <f>SQRT((SUMSQ('k14'!N:N)/COUNT('k14'!N:N)-N1*N1)/(COUNT('k14'!N:N)-1))</f>
-        <v>0.21990315972754906</v>
+        <v>0.18569816285575277</v>
       </c>
       <c r="O2">
         <f>SQRT((SUMSQ('k14'!O:O)/COUNT('k14'!O:O)-O1*O1)/(COUNT('k14'!O:O)-1))</f>
-        <v>0.30298800764285622</v>
+        <v>0.22023053165693474</v>
       </c>
       <c r="P2">
         <f>SQRT((SUMSQ('k14'!P:P)/COUNT('k14'!P:P)-P1*P1)/(COUNT('k14'!P:P)-1))</f>
-        <v>0.47795018202271888</v>
-      </c>
-      <c r="Q2" t="e">
-        <f>SQRT((SUMSQ('k14'!Q:Q)/COUNT('k14'!Q:Q)-Q1*Q1)/(COUNT('k14'!Q:Q)-1))</f>
-        <v>#DIV/0!</v>
+        <v>0.34812591811377863</v>
       </c>
       <c r="R2">
         <f>SQRT((SUMSQ('k14'!R:R)/COUNT('k14'!R:R)-R1*R1)/(COUNT('k14'!R:R)-1))</f>
@@ -12677,7 +11118,7 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.5</v>
       </c>
       <c r="C4">
@@ -12698,23 +11139,23 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f>INDEX($1:$1,1,B$3*4+$A5)</f>
+        <f t="shared" ref="B5:F7" si="0">INDEX($1:$1,1,B$3*4+$A5)</f>
         <v>1.6728110599078341</v>
       </c>
       <c r="C5">
-        <f>INDEX($1:$1,1,C$3*4+$A5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D5">
-        <f>INDEX($1:$1,1,D$3*4+$A5)</f>
+        <f t="shared" si="0"/>
         <v>2.6470588235294117</v>
       </c>
       <c r="E5">
-        <f>INDEX($1:$1,1,E$3*4+$A5)</f>
-        <v>2.642105263157895</v>
+        <f t="shared" si="0"/>
+        <v>2.521276595744681</v>
       </c>
       <c r="F5">
-        <f>INDEX($1:$1,1,F$3*4+$A5)</f>
+        <f t="shared" si="0"/>
         <v>2.9333333333333331</v>
       </c>
     </row>
@@ -12723,23 +11164,23 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f>INDEX($1:$1,1,B$3*4+$A6)</f>
+        <f t="shared" si="0"/>
         <v>0.21658986175115208</v>
       </c>
       <c r="C6">
-        <f>INDEX($1:$1,1,C$3*4+$A6)</f>
+        <f t="shared" si="0"/>
         <v>0.35849056603773582</v>
       </c>
       <c r="D6">
-        <f>INDEX($1:$1,1,D$3*4+$A6)</f>
+        <f t="shared" si="0"/>
         <v>1.411764705882353</v>
       </c>
       <c r="E6">
-        <f>INDEX($1:$1,1,E$3*4+$A6)</f>
-        <v>2.2105263157894739</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F6">
-        <f>INDEX($1:$1,1,F$3*4+$A6)</f>
+        <f t="shared" si="0"/>
         <v>2.0133333333333332</v>
       </c>
     </row>
@@ -12748,23 +11189,23 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f>INDEX($1:$1,1,B$3*4+$A7)</f>
+        <f t="shared" si="0"/>
         <v>1.8894009216589862</v>
       </c>
       <c r="C7">
-        <f>INDEX($1:$1,1,C$3*4+$A7)</f>
+        <f t="shared" si="0"/>
         <v>2.358490566037736</v>
       </c>
       <c r="D7">
-        <f>INDEX($1:$1,1,D$3*4+$A7)</f>
+        <f t="shared" si="0"/>
         <v>4.0588235294117645</v>
       </c>
       <c r="E7">
-        <f>INDEX($1:$1,1,E$3*4+$A7)</f>
-        <v>4.8526315789473689</v>
+        <f t="shared" si="0"/>
+        <v>4.5212765957446805</v>
       </c>
       <c r="F7">
-        <f>INDEX($1:$1,1,F$3*4+$A7)</f>
+        <f t="shared" si="0"/>
         <v>4.9466666666666663</v>
       </c>
     </row>
@@ -12777,19 +11218,19 @@
         <v>5.5766927375334403E-2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:F10" si="0">INDEX($2:$2,1,C$3*4+$A8)</f>
+        <f t="shared" ref="C8:F10" si="1">INDEX($2:$2,1,C$3*4+$A8)</f>
         <v>0.14754891442515133</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40470132236373124</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.21990315972754906</v>
+        <f t="shared" si="1"/>
+        <v>0.18569816285575277</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20474843570079343</v>
       </c>
     </row>
@@ -12798,23 +11239,23 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B10" si="1">INDEX($2:$2,1,B$3*4+$A9)</f>
+        <f t="shared" ref="B9:B10" si="2">INDEX($2:$2,1,B$3*4+$A9)</f>
         <v>3.6609447888826377E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1238327832548793E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39856616244308202</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.30298800764285622</v>
+        <f t="shared" si="1"/>
+        <v>0.22023053165693474</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18058297320126895</v>
       </c>
     </row>
@@ -12823,3935 +11264,1156 @@
         <v>4</v>
       </c>
       <c r="B10">
+        <f t="shared" si="2"/>
+        <v>6.4557261410699993E-2</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
-        <v>6.4557261410699993E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
         <v>0.17684203594396911</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76456875227341092</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.47795018202271888</v>
+        <f t="shared" si="1"/>
+        <v>0.34812591811377863</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32543433670635857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B54" si="3">A14*lambda</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="5">
-        <v>0</v>
+      <c r="A15" s="4">
+        <v>0.5</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.8212072294977899</v>
       </c>
       <c r="D15">
-        <f>r_*(B15-C15)^2+B15*(C15-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>A15/lambda</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>1+1/gamma*(1-EXP(-gamma*A15))</f>
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f>F15/(1-B15)</f>
-        <v>1</v>
+        <v>0.16661701637333101</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.9878242458711299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16">
-        <v>0.1</v>
+      <c r="A16" s="4">
+        <v>1</v>
       </c>
       <c r="B16">
-        <f>(A16-A15)*D15+B15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C16">
-        <f>(y0-1)*EXP(-gamma*A16)+1</f>
-        <v>0.25918177931828212</v>
+        <v>1.95743401905074</v>
       </c>
       <c r="D16">
-        <f>r_*(B16-C16)^2+B16*(C16-1)</f>
-        <v>1.6793798682647673E-2</v>
+        <v>0.47748098552738599</v>
       </c>
       <c r="E16">
-        <f>A16/lambda</f>
-        <v>0.1</v>
-      </c>
-      <c r="F16">
-        <f>1+1/gamma*(1-EXP(-gamma*A16))</f>
-        <v>1.0863939264394273</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G79" si="2">F16/(1-B16)</f>
-        <v>1.0863939264394273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>0.2</v>
+        <v>2.43491500457813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>1.5</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B20" si="3">(A17-A16)*D16+B16</f>
-        <v>1.6793798682647673E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="C17">
-        <f>(y0-1)*EXP(-gamma*A17)+1</f>
-        <v>0.45118836390597361</v>
+        <v>2.02984053288275</v>
       </c>
       <c r="D17">
-        <f>r_*(B17-C17)^2+B17*(C17-1)</f>
-        <v>4.9592918469527535E-2</v>
+        <v>0.808841720676306</v>
       </c>
       <c r="E17">
-        <f>A17/lambda</f>
-        <v>0.2</v>
-      </c>
-      <c r="F17">
-        <f>1+1/gamma*(1-EXP(-gamma*A17))</f>
-        <v>1.1503961213019913</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>1.1523313233279591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>0.3</v>
+        <v>2.8386822535590501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>2</v>
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>6.6386717152175194E-3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <f>(y0-1)*EXP(-gamma*A18)+1</f>
-        <v>0.59343034025940078</v>
+        <v>2.0797250434458299</v>
       </c>
       <c r="D18">
-        <f>r_*(B18-C18)^2+B18*(C18-1)</f>
-        <v>8.3382033067831138E-2</v>
+        <v>1.1232250364659</v>
       </c>
       <c r="E18">
-        <f>A18/lambda</f>
-        <v>0.3</v>
-      </c>
-      <c r="F18">
-        <f>1+1/gamma*(1-EXP(-gamma*A18))</f>
-        <v>1.1978101134198003</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1.2058151241784654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>0.4</v>
+        <v>3.2029500799117301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>2.5</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B41" si="4">(A19-A18)*D18+B18</f>
-        <v>1.4976875022000636E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="C19">
-        <f>(y0-1)*EXP(-gamma*A19)+1</f>
-        <v>0.69880578808779803</v>
+        <v>2.12160821488242</v>
       </c>
       <c r="D19">
-        <f>r_*(B19-C19)^2+B19*(C19-1)</f>
-        <v>0.11239454751702845</v>
+        <v>1.4107909206643701</v>
       </c>
       <c r="E19">
-        <f>A19/lambda</f>
-        <v>0.4</v>
-      </c>
-      <c r="F19">
-        <f>1+1/gamma*(1-EXP(-gamma*A19))</f>
-        <v>1.2329352626959327</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1.2516815406983166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>0.5</v>
+        <v>3.5323991355467901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>3</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
-        <v>2.621632977370348E-2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C20">
-        <f>(y0-1)*EXP(-gamma*A20)+1</f>
-        <v>0.77686983985157021</v>
+        <v>2.16065069405788</v>
       </c>
       <c r="D20">
-        <f>r_*(B20-C20)^2+B20*(C20-1)</f>
-        <v>0.13502051918714497</v>
+        <v>1.67094959955095</v>
       </c>
       <c r="E20">
-        <f>A20/lambda</f>
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <f>1+1/gamma*(1-EXP(-gamma*A20))</f>
-        <v>1.2589566132838568</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>1.2928504058722705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>0.6</v>
+        <v>3.83160029360883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>3.5</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
-        <v>3.9718381692417974E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5</v>
       </c>
       <c r="C21">
-        <f>(y0-1)*EXP(-gamma*A21)+1</f>
-        <v>0.83470111177841344</v>
+        <v>2.1986904662164402</v>
       </c>
       <c r="D21">
-        <f>r_*(B21-C21)^2+B21*(C21-1)</f>
-        <v>0.15143398094802837</v>
+        <v>1.9062056961160401</v>
       </c>
       <c r="E21">
-        <f>A21/lambda</f>
-        <v>0.6</v>
-      </c>
-      <c r="F21">
-        <f>1+1/gamma*(1-EXP(-gamma*A21))</f>
-        <v>1.2782337039261378</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>1.3311029593369914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>0.7</v>
+        <v>4.10489616233248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
-        <v>5.4861779787220809E-2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C22">
-        <f>(y0-1)*EXP(-gamma*A22)+1</f>
-        <v>0.87754357174701803</v>
+        <v>2.23637723024886</v>
       </c>
       <c r="D22">
-        <f>r_*(B22-C22)^2+B22*(C22-1)</f>
-        <v>0.16248315510520103</v>
+        <v>2.11967535645153</v>
       </c>
       <c r="E22">
-        <f>A22/lambda</f>
-        <v>0.7</v>
-      </c>
-      <c r="F22">
-        <f>1+1/gamma*(1-EXP(-gamma*A22))</f>
-        <v>1.2925145239156728</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>1.3675402139855151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>0.8</v>
+        <v>4.3560525867003896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>4.5</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
-        <v>7.1110095297740927E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="C23">
-        <f>(y0-1)*EXP(-gamma*A23)+1</f>
-        <v>0.90928204671058754</v>
+        <v>2.27394187610561</v>
       </c>
       <c r="D23">
-        <f>r_*(B23-C23)^2+B23*(C23-1)</f>
-        <v>0.1691820927301787</v>
+        <v>2.3143502064516501</v>
       </c>
       <c r="E23">
-        <f>A23/lambda</f>
-        <v>0.8</v>
-      </c>
-      <c r="F23">
-        <f>1+1/gamma*(1-EXP(-gamma*A23))</f>
-        <v>1.3030940155701958</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>1.4028508749784312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>0.9</v>
+        <v>4.5882920825572597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>5</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
-        <v>8.8028304570758789E-2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C24">
-        <f>(y0-1)*EXP(-gamma*A24)+1</f>
-        <v>0.93279448726025027</v>
+        <v>2.3114634462176902</v>
       </c>
       <c r="D24">
-        <f>r_*(B24-C24)^2+B24*(C24-1)</f>
-        <v>0.17249148850965512</v>
+        <v>2.49292780660701</v>
       </c>
       <c r="E24">
-        <f>A24/lambda</f>
-        <v>0.9</v>
-      </c>
-      <c r="F24">
-        <f>1+1/gamma*(1-EXP(-gamma*A24))</f>
-        <v>1.3109314957534166</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>1.4374694985861327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>1</v>
+        <v>4.8043912528246899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>5.5</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
-        <v>0.1052774534217243</v>
+        <f t="shared" si="3"/>
+        <v>5.5</v>
       </c>
       <c r="C25">
-        <f>(y0-1)*EXP(-gamma*A25)+1</f>
-        <v>0.95021293163213605</v>
+        <v>2.3489707485175302</v>
       </c>
       <c r="D25">
-        <f>r_*(B25-C25)^2+B25*(C25-1)</f>
-        <v>0.17323753481356227</v>
+        <v>2.6577629437391601</v>
       </c>
       <c r="E25">
-        <f>A25/lambda</f>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f>1+1/gamma*(1-EXP(-gamma*A25))</f>
-        <v>1.3167376438773788</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1.4716714683373442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>1.1000000000000001</v>
+        <v>5.0067336922566801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>6</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
-        <v>0.12260120690308055</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C26">
-        <f>(y0-1)*EXP(-gamma*A26)+1</f>
-        <v>0.96311683259876002</v>
+        <v>2.3864731303898599</v>
       </c>
       <c r="D26">
-        <f>r_*(B26-C26)^2+B26*(C26-1)</f>
-        <v>0.17209470842184954</v>
+        <v>2.8108910959820101</v>
       </c>
       <c r="E26">
-        <f>A26/lambda</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26">
-        <f>1+1/gamma*(1-EXP(-gamma*A26))</f>
-        <v>1.3210389441995867</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.5056311389907071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>1.2</v>
+        <v>5.19736422637187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>6.5</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
-        <v>0.13981067774526548</v>
+        <f t="shared" si="3"/>
+        <v>6.5</v>
       </c>
       <c r="C27">
-        <f>(y0-1)*EXP(-gamma*A27)+1</f>
-        <v>0.97267627755270747</v>
+        <v>2.4239739105818399</v>
       </c>
       <c r="D27">
-        <f>r_*(B27-C27)^2+B27*(C27-1)</f>
-        <v>0.16959612868177304</v>
+        <v>2.9540115408631999</v>
       </c>
       <c r="E27">
-        <f>A27/lambda</f>
-        <v>1.2</v>
-      </c>
-      <c r="F27">
-        <f>1+1/gamma*(1-EXP(-gamma*A27))</f>
-        <v>1.3242254258509025</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1.5394581071755613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>1.3</v>
+        <v>5.3779854514450403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>7</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
-        <v>0.1567702906134428</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C28">
-        <f>(y0-1)*EXP(-gamma*A28)+1</f>
-        <v>0.97975808855419566</v>
+        <v>2.4614741091789698</v>
       </c>
       <c r="D28">
-        <f>r_*(B28-C28)^2+B28*(C28-1)</f>
-        <v>0.16615389854991205</v>
+        <v>3.0885781295671202</v>
       </c>
       <c r="E28">
-        <f>A28/lambda</f>
-        <v>1.3</v>
-      </c>
-      <c r="F28">
-        <f>1+1/gamma*(1-EXP(-gamma*A28))</f>
-        <v>1.3265860295180651</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>1.5732202207191512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>1.4</v>
+        <v>5.5500522387460904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>7.5</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
-        <v>0.173385680468434</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="C29">
-        <f>(y0-1)*EXP(-gamma*A29)+1</f>
-        <v>0.9850044231795223</v>
+        <v>2.4989742471816299</v>
       </c>
       <c r="D29">
-        <f>r_*(B29-C29)^2+B29*(C29-1)</f>
-        <v>0.16208122758894675</v>
+        <v>3.21583212673481</v>
       </c>
       <c r="E29">
-        <f>A29/lambda</f>
-        <v>1.4</v>
-      </c>
-      <c r="F29">
-        <f>1+1/gamma*(1-EXP(-gamma*A29))</f>
-        <v>1.3283348077265074</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>1.606958379912002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>1.5</v>
+        <v>5.7148063739164403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>8</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
-        <v>0.18959380322732869</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="C30">
-        <f>(y0-1)*EXP(-gamma*A30)+1</f>
-        <v>0.98889100346175773</v>
+        <v>2.5364741977589098</v>
       </c>
       <c r="D30">
-        <f>r_*(B30-C30)^2+B30*(C30-1)</f>
-        <v>0.15761280667192468</v>
+        <v>3.3368231668089301</v>
       </c>
       <c r="E30">
-        <f>A30/lambda</f>
-        <v>1.5</v>
-      </c>
-      <c r="F30">
-        <f>1+1/gamma*(1-EXP(-gamma*A30))</f>
-        <v>1.3296303344872524</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>1.6406961592622542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>1.6</v>
+        <v>5.8732973645678399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>8.5</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
-        <v>0.20535508389452117</v>
+        <f t="shared" si="3"/>
+        <v>8.5</v>
       </c>
       <c r="C31">
-        <f>(y0-1)*EXP(-gamma*A31)+1</f>
-        <v>0.99177025295097998</v>
+        <v>2.57397420230927</v>
       </c>
       <c r="D31">
-        <f>r_*(B31-C31)^2+B31*(C31-1)</f>
-        <v>0.15292218413484249</v>
+        <v>3.4524391674717898</v>
       </c>
       <c r="E31">
-        <f>A31/lambda</f>
-        <v>1.6</v>
-      </c>
-      <c r="F31">
-        <f>1+1/gamma*(1-EXP(-gamma*A31))</f>
-        <v>1.3305900843169933</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>1.6744461046050092</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>1.7</v>
+        <v>6.0264133697810696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>9</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
-        <v>0.22064730230800539</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="C32">
-        <f>(y0-1)*EXP(-gamma*A32)+1</f>
-        <v>0.99390325343448438</v>
+        <v>2.6114742759501302</v>
       </c>
       <c r="D32">
-        <f>r_*(B32-C32)^2+B32*(C32-1)</f>
-        <v>0.14813596080559227</v>
+        <v>3.56343814748063</v>
       </c>
       <c r="E32">
-        <f>A32/lambda</f>
-        <v>1.7</v>
-      </c>
-      <c r="F32">
-        <f>1+1/gamma*(1-EXP(-gamma*A32))</f>
-        <v>1.3313010844781614</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>1.7082138657128256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>1.8</v>
+        <v>6.1749124234307597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>9.5</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
-        <v>0.23546089838856463</v>
+        <f t="shared" si="3"/>
+        <v>9.5</v>
       </c>
       <c r="C33">
-        <f>(y0-1)*EXP(-gamma*A33)+1</f>
-        <v>0.99548341905738735</v>
+        <v>2.64897418592366</v>
       </c>
       <c r="D33">
-        <f>r_*(B33-C33)^2+B33*(C33-1)</f>
-        <v>0.14334507977455552</v>
+        <v>3.6704650500365301</v>
       </c>
       <c r="E33">
-        <f>A33/lambda</f>
-        <v>1.8</v>
-      </c>
-      <c r="F33">
-        <f>1+1/gamma*(1-EXP(-gamma*A33))</f>
-        <v>1.3318278063524625</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>1.742000904264204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>1.9</v>
+        <v>6.3194392359601803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>10</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
-        <v>0.24979540636602016</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C34">
-        <f>(y0-1)*EXP(-gamma*A34)+1</f>
-        <v>0.99665403454252877</v>
+        <v>2.68647419529391</v>
       </c>
       <c r="D34">
-        <f>r_*(B34-C34)^2+B34*(C34-1)</f>
-        <v>0.13861364581928839</v>
+        <v>3.7740672306560401</v>
       </c>
       <c r="E34">
-        <f>A34/lambda</f>
-        <v>1.9</v>
-      </c>
-      <c r="F34">
-        <f>1+1/gamma*(1-EXP(-gamma*A34))</f>
-        <v>1.3322180115141762</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>1.7758062571450437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2</v>
+        <v>6.4605414259499501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>10.5</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
-        <v>0.26365677094794898</v>
+        <f t="shared" si="3"/>
+        <v>10.5</v>
       </c>
       <c r="C35">
-        <f>(y0-1)*EXP(-gamma*A35)+1</f>
-        <v>0.99752124782333362</v>
+        <v>2.7239742820740398</v>
       </c>
       <c r="D35">
-        <f>r_*(B35-C35)^2+B35*(C35-1)</f>
-        <v>0.13398572781001541</v>
+        <v>3.8747101933649799</v>
       </c>
       <c r="E35">
-        <f>A35/lambda</f>
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <f>1+1/gamma*(1-EXP(-gamma*A35))</f>
-        <v>1.3325070826077778</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>1.8096276709479795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2.1</v>
+        <v>6.5986844754390299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>11</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
-        <v>0.27705534372895052</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="C36">
-        <f>(y0-1)*EXP(-gamma*A36)+1</f>
-        <v>0.9981636952229711</v>
+        <v>2.7614741912639902</v>
       </c>
       <c r="D36">
-        <f>r_*(B36-C36)^2+B36*(C36-1)</f>
-        <v>0.12949055559741515</v>
+        <v>3.9727920178285001</v>
       </c>
       <c r="E36">
-        <f>A36/lambda</f>
-        <v>2.1</v>
-      </c>
-      <c r="F36">
-        <f>1+1/gamma*(1-EXP(-gamma*A36))</f>
-        <v>1.3327212317409902</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>1.843462317869766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2.2000000000000002</v>
+        <v>6.7342662090924899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>11.5</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
-        <v>0.29000439928869204</v>
+        <f t="shared" si="3"/>
+        <v>11.5</v>
       </c>
       <c r="C37">
-        <f>(y0-1)*EXP(-gamma*A37)+1</f>
-        <v>0.99863963196245209</v>
+        <v>2.7989741765362002</v>
       </c>
       <c r="D37">
-        <f>r_*(B37-C37)^2+B37*(C37-1)</f>
-        <v>0.12514646053110789</v>
+        <v>4.0686530023948597</v>
       </c>
       <c r="E37">
-        <f>A37/lambda</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F37">
-        <f>1+1/gamma*(1-EXP(-gamma*A37))</f>
-        <v>1.3328798773208175</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>1.877307233996202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2.2999999999999998</v>
+        <v>6.8676271789310501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>12</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
-        <v>0.30251904534180279</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="C38">
-        <f>(y0-1)*EXP(-gamma*A38)+1</f>
-        <v>0.99899221457095144</v>
+        <v>2.8364742707379502</v>
       </c>
       <c r="D38">
-        <f>r_*(B38-C38)^2+B38*(C38-1)</f>
-        <v>0.12096384457811842</v>
+        <v>4.1625823356948599</v>
       </c>
       <c r="E38">
-        <f>A38/lambda</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F38">
-        <f>1+1/gamma*(1-EXP(-gamma*A38))</f>
-        <v>1.3329974048569837</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>1.9111595749739478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>2.4</v>
+        <v>6.9990566064328101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>12.5</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
-        <v>0.31461542979961465</v>
+        <f t="shared" si="3"/>
+        <v>12.5</v>
       </c>
       <c r="C39">
-        <f>(y0-1)*EXP(-gamma*A39)+1</f>
-        <v>0.99925341419162328</v>
+        <v>2.8739742425568999</v>
       </c>
       <c r="D39">
-        <f>r_*(B39-C39)^2+B39*(C39-1)</f>
-        <v>0.11694740500310333</v>
+        <v>4.2548270181458303</v>
       </c>
       <c r="E39">
-        <f>A39/lambda</f>
-        <v>2.4</v>
-      </c>
-      <c r="F39">
-        <f>1+1/gamma*(1-EXP(-gamma*A39))</f>
-        <v>1.3330844713972079</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>1.9450167531601346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>2.5</v>
+        <v>7.1288012607027298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>13</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
-        <v>0.32631017029992498</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="C40">
-        <f>(y0-1)*EXP(-gamma*A40)+1</f>
-        <v>0.99944691562985222</v>
+        <v>2.9114741483719699</v>
       </c>
       <c r="D40">
-        <f>r_*(B40-C40)^2+B40*(C40-1)</f>
-        <v>0.11309779242332871</v>
+        <v>4.3455997258044103</v>
       </c>
       <c r="E40">
-        <f>A40/lambda</f>
-        <v>2.5</v>
-      </c>
-      <c r="F40">
-        <f>1+1/gamma*(1-EXP(-gamma*A40))</f>
-        <v>1.3331489718766174</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>1.9788764993975518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>2.6</v>
+        <v>7.2570738741763803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>13.5</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
-        <v>0.33761994954225788</v>
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="C41">
-        <f>(y0-1)*EXP(-gamma*A41)+1</f>
-        <v>0.99959026502102022</v>
+        <v>2.94897418087902</v>
       </c>
       <c r="D41">
-        <f>r_*(B41-C41)^2+B41*(C41-1)</f>
-        <v>0.1094128399408342</v>
+        <v>4.4350828157010698</v>
       </c>
       <c r="E41">
-        <f>A41/lambda</f>
-        <v>2.6</v>
-      </c>
-      <c r="F41">
-        <f>1+1/gamma*(1-EXP(-gamma*A41))</f>
-        <v>1.3331967550070067</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>2.0127368783007462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>2.7</v>
+        <v>7.3840569965800897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>14</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:B105" si="5">(A42-A41)*D41+B41</f>
-        <v>0.34856123353634133</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="C42">
-        <f>(y0-1)*EXP(-gamma*A42)+1</f>
-        <v>0.9996964608619211</v>
+        <v>2.9864742926244898</v>
       </c>
       <c r="D42">
-        <f>r_*(B42-C42)^2+B42*(C42-1)</f>
-        <v>0.10588846908968826</v>
+        <v>4.5234318185912397</v>
       </c>
       <c r="E42">
-        <f>A42/lambda</f>
-        <v>2.7</v>
-      </c>
-      <c r="F42">
-        <f>1+1/gamma*(1-EXP(-gamma*A42))</f>
-        <v>1.3332321536206404</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>2.0465962762058254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>2.8</v>
+        <v>7.5099061112157299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>14.5</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
-        <v>0.3591500804453101</v>
+        <f t="shared" si="3"/>
+        <v>14.5</v>
       </c>
       <c r="C43">
-        <f>(y0-1)*EXP(-gamma*A43)+1</f>
-        <v>0.99977513267582119</v>
+        <v>3.02397421618118</v>
       </c>
       <c r="D43">
-        <f>r_*(B43-C43)^2+B43*(C43-1)</f>
-        <v>0.1025193532687679</v>
+        <v>4.6107801841558098</v>
       </c>
       <c r="E43">
-        <f>A43/lambda</f>
-        <v>2.8</v>
-      </c>
-      <c r="F43">
-        <f>1+1/gamma*(1-EXP(-gamma*A43))</f>
-        <v>1.3332583775586071</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>2.0804533743018241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>2.9</v>
+        <v>7.6347544003369903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>15</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
-        <v>0.3694020157721869</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="C44">
-        <f>(y0-1)*EXP(-gamma*A44)+1</f>
-        <v>0.99983341418901239</v>
+        <v>3.06147412937373</v>
       </c>
       <c r="D44">
-        <f>r_*(B44-C44)^2+B44*(C44-1)</f>
-        <v>9.9299399893070669E-2</v>
+        <v>4.6972439020402996</v>
       </c>
       <c r="E44">
-        <f>A44/lambda</f>
-        <v>2.9</v>
-      </c>
-      <c r="F44">
-        <f>1+1/gamma*(1-EXP(-gamma*A44))</f>
-        <v>1.3332778047296707</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>2.1143071149558321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>3</v>
+        <v>7.7587180314140198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4">
+        <v>15.5</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
-        <v>0.37933195576149398</v>
+        <f t="shared" si="3"/>
+        <v>15.5</v>
       </c>
       <c r="C45">
-        <f>(y0-1)*EXP(-gamma*A45)+1</f>
-        <v>0.99987659019591335</v>
+        <v>3.0989741620723099</v>
       </c>
       <c r="D45">
-        <f>r_*(B45-C45)^2+B45*(C45-1)</f>
-        <v>9.6222097548992483E-2</v>
+        <v>4.78292283149979</v>
       </c>
       <c r="E45">
-        <f>A45/lambda</f>
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <f>1+1/gamma*(1-EXP(-gamma*A45))</f>
-        <v>1.3332921967319711</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>2.1481566662059741</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>3.1</v>
+        <v>7.8818969935721004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>16</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
-        <v>0.38895416551639322</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="C46">
-        <f>(y0-1)*EXP(-gamma*A46)+1</f>
-        <v>0.99990857576852188</v>
+        <v>3.1364742422671799</v>
       </c>
       <c r="D46">
-        <f>r_*(B46-C46)^2+B46*(C46-1)</f>
-        <v>9.3280763015969048E-2</v>
+        <v>4.8679025769505397</v>
       </c>
       <c r="E46">
-        <f>A46/lambda</f>
-        <v>3.1</v>
-      </c>
-      <c r="F46">
-        <f>1+1/gamma*(1-EXP(-gamma*A46))</f>
-        <v>1.3333028585895073</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>2.1820013873693749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>3.2</v>
+        <v>8.00437681921772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>16.5</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
-        <v>0.39828224181799016</v>
+        <f t="shared" si="3"/>
+        <v>16.5</v>
       </c>
       <c r="C47">
-        <f>(y0-1)*EXP(-gamma*A47)+1</f>
-        <v>0.99993227126350914</v>
+        <v>3.1739741867113</v>
       </c>
       <c r="D47">
-        <f>r_*(B47-C47)^2+B47*(C47-1)</f>
-        <v>9.046871432994337E-2</v>
+        <v>4.95225711867442</v>
       </c>
       <c r="E47">
-        <f>A47/lambda</f>
-        <v>3.2</v>
-      </c>
-      <c r="F47">
-        <f>1+1/gamma*(1-EXP(-gamma*A47))</f>
-        <v>1.3333107570878364</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>2.2158407973801753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>3.3</v>
+        <v>8.1262313053857191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>17</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
-        <v>0.40732911325098448</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="C48">
-        <f>(y0-1)*EXP(-gamma*A48)+1</f>
-        <v>0.99994982531794385</v>
+        <v>3.2114741254752399</v>
       </c>
       <c r="D48">
-        <f>r_*(B48-C48)^2+B48*(C48-1)</f>
-        <v>8.7779389483937903E-2</v>
+        <v>5.0360513263636602</v>
       </c>
       <c r="E48">
-        <f>A48/lambda</f>
-        <v>3.3</v>
-      </c>
-      <c r="F48">
-        <f>1+1/gamma*(1-EXP(-gamma*A48))</f>
-        <v>1.3333166084393147</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>2.2496745466155281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>3.4</v>
+        <v>8.2475254518389001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4">
+        <v>17.5</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
-        <v>0.41610705219937827</v>
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="C49">
-        <f>(y0-1)*EXP(-gamma*A49)+1</f>
-        <v>0.99996282968131589</v>
+        <v>3.2489741501137299</v>
       </c>
       <c r="D49">
-        <f>r_*(B49-C49)^2+B49*(C49-1)</f>
-        <v>8.5206425393022506E-2</v>
+        <v>5.1193414697105704</v>
       </c>
       <c r="E49">
-        <f>A49/lambda</f>
-        <v>3.4</v>
-      </c>
-      <c r="F49">
-        <f>1+1/gamma*(1-EXP(-gamma*A49))</f>
-        <v>1.3333209432271054</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>2.2835023924323643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>3.5</v>
+        <v>8.3683156198242905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4">
+        <v>18</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
-        <v>0.42462769473868051</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="C50">
-        <f>(y0-1)*EXP(-gamma*A50)+1</f>
-        <v>0.99997246355065028</v>
+        <v>3.2864742090753398</v>
       </c>
       <c r="D50">
-        <f>r_*(B50-C50)^2+B50*(C50-1)</f>
-        <v>8.2743708010816069E-2</v>
+        <v>5.2021761490954797</v>
       </c>
       <c r="E50">
-        <f>A50/lambda</f>
-        <v>3.5</v>
-      </c>
-      <c r="F50">
-        <f>1+1/gamma*(1-EXP(-gamma*A50))</f>
-        <v>1.3333241545168835</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>2.3173241783184566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>3.6</v>
+        <v>8.4886503581708208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4">
+        <v>18.5</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
-        <v>0.43290206553976213</v>
+        <f t="shared" si="3"/>
+        <v>18.5</v>
       </c>
       <c r="C51">
-        <f>(y0-1)*EXP(-gamma*A51)+1</f>
-        <v>0.99997960049658885</v>
+        <v>3.32397416796926</v>
       </c>
       <c r="D51">
-        <f>r_*(B51-C51)^2+B51*(C51-1)</f>
-        <v>8.0385401676015072E-2</v>
+        <v>5.2845977005946398</v>
       </c>
       <c r="E51">
-        <f>A51/lambda</f>
-        <v>3.6</v>
-      </c>
-      <c r="F51">
-        <f>1+1/gamma*(1-EXP(-gamma*A51))</f>
-        <v>1.3333265334988629</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>2.3511398163844826</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>3.7</v>
+        <v>8.6085718685638994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4">
+        <v>19</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
-        <v>0.44094060570736365</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="C52">
-        <f>(y0-1)*EXP(-gamma*A52)+1</f>
-        <v>0.9999848876761801</v>
+        <v>3.3614741235741001</v>
       </c>
       <c r="D52">
-        <f>r_*(B52-C52)^2+B52*(C52-1)</f>
-        <v>7.8125963663288583E-2</v>
+        <v>5.3666436881039301</v>
       </c>
       <c r="E52">
-        <f>A52/lambda</f>
-        <v>3.7</v>
-      </c>
-      <c r="F52">
-        <f>1+1/gamma*(1-EXP(-gamma*A52))</f>
-        <v>1.33332829589206</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>2.3849492728390453</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>3.8</v>
+        <v>8.72811781167802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4">
+        <v>19.5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
-        <v>0.44875320207369246</v>
+        <f t="shared" si="3"/>
+        <v>19.5</v>
       </c>
       <c r="C53">
-        <f>(y0-1)*EXP(-gamma*A53)+1</f>
-        <v>0.99998880451515737</v>
+        <v>3.39897413670659</v>
       </c>
       <c r="D53">
-        <f>r_*(B53-C53)^2+B53*(C53-1)</f>
-        <v>7.5960148340079275E-2</v>
+        <v>5.4483469377244802</v>
       </c>
       <c r="E53">
-        <f>A53/lambda</f>
-        <v>3.8</v>
-      </c>
-      <c r="F53">
-        <f>1+1/gamma*(1-EXP(-gamma*A53))</f>
-        <v>1.3333296015050524</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>2.418752556061643</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>3.9</v>
+        <v>8.8473210744310702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4">
+        <v>20</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
-        <v>0.45634921690770042</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C54">
-        <f>(y0-1)*EXP(-gamma*A54)+1</f>
-        <v>0.99999170618083921</v>
+        <v>3.43647413659729</v>
       </c>
       <c r="D54">
-        <f>r_*(B54-C54)^2+B54*(C54-1)</f>
-        <v>7.3883004157894533E-2</v>
+        <v>5.5297360745609403</v>
       </c>
       <c r="E54">
-        <f>A54/lambda</f>
-        <v>3.9</v>
-      </c>
-      <c r="F54">
-        <f>1+1/gamma*(1-EXP(-gamma*A54))</f>
-        <v>1.3333305687269463</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>2.4525497068962685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="5"/>
-        <v>0.46373751732348989</v>
-      </c>
-      <c r="C55">
-        <f>(y0-1)*EXP(-gamma*A55)+1</f>
-        <v>0.99999385578764666</v>
-      </c>
-      <c r="D55">
-        <f>r_*(B55-C55)^2+B55*(C55-1)</f>
-        <v>7.1889865833963409E-2</v>
-      </c>
-      <c r="E55">
-        <f>A55/lambda</f>
-        <v>4</v>
-      </c>
-      <c r="F55">
-        <f>1+1/gamma*(1-EXP(-gamma*A55))</f>
-        <v>1.333331285262549</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>2.4863407908154094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="5"/>
-        <v>0.47092650390688623</v>
-      </c>
-      <c r="C56">
-        <f>(y0-1)*EXP(-gamma*A56)+1</f>
-        <v>0.99999544825553688</v>
-      </c>
-      <c r="D56">
-        <f>r_*(B56-C56)^2+B56*(C56-1)</f>
-        <v>6.9976343431442226E-2</v>
-      </c>
-      <c r="E56">
-        <f>A56/lambda</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F56">
-        <f>1+1/gamma*(1-EXP(-gamma*A56))</f>
-        <v>1.3333318160851788</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>2.5201258916408094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>4.2</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="5"/>
-        <v>0.47792413825003049</v>
-      </c>
-      <c r="C57">
-        <f>(y0-1)*EXP(-gamma*A57)+1</f>
-        <v>0.99999662798476585</v>
-      </c>
-      <c r="D57">
-        <f>r_*(B57-C57)^2+B57*(C57-1)</f>
-        <v>6.8138309566981387E-2</v>
-      </c>
-      <c r="E57">
-        <f>A57/lambda</f>
-        <v>4.2</v>
-      </c>
-      <c r="F57">
-        <f>1+1/gamma*(1-EXP(-gamma*A57))</f>
-        <v>1.3333322093282551</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>2.5539051065471581</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>4.3</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="5"/>
-        <v>0.48473796920672862</v>
-      </c>
-      <c r="C58">
-        <f>(y0-1)*EXP(-gamma*A58)+1</f>
-        <v>0.99999750194967418</v>
-      </c>
-      <c r="D58">
-        <f>r_*(B58-C58)^2+B58*(C58-1)</f>
-        <v>6.637188562077774E-2</v>
-      </c>
-      <c r="E58">
-        <f>A58/lambda</f>
-        <v>4.3</v>
-      </c>
-      <c r="F58">
-        <f>1+1/gamma*(1-EXP(-gamma*A58))</f>
-        <v>1.3333325006498913</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>2.5876785421141162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="5"/>
-        <v>0.49137515776880641</v>
-      </c>
-      <c r="C59">
-        <f>(y0-1)*EXP(-gamma*A59)+1</f>
-        <v>0.99999814939880238</v>
-      </c>
-      <c r="D59">
-        <f>r_*(B59-C59)^2+B59*(C59-1)</f>
-        <v>6.4673427564206312E-2</v>
-      </c>
-      <c r="E59">
-        <f>A59/lambda</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F59">
-        <f>1+1/gamma*(1-EXP(-gamma*A59))</f>
-        <v>1.3333327164662674</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>2.6214463112287496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>4.5</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="5"/>
-        <v>0.49784250052522705</v>
-      </c>
-      <c r="C60">
-        <f>(y0-1)*EXP(-gamma*A60)+1</f>
-        <v>0.99999862904091363</v>
-      </c>
-      <c r="D60">
-        <f>r_*(B60-C60)^2+B60*(C60-1)</f>
-        <v>6.3039511829766012E-2</v>
-      </c>
-      <c r="E60">
-        <f>A60/lambda</f>
-        <v>4.5</v>
-      </c>
-      <c r="F60">
-        <f>1+1/gamma*(1-EXP(-gamma*A60))</f>
-        <v>1.3333328763469712</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>2.6552085306732618</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="5"/>
-        <v>0.5041464517082036</v>
-      </c>
-      <c r="C61">
-        <f>(y0-1)*EXP(-gamma*A61)+1</f>
-        <v>0.99999898436852896</v>
-      </c>
-      <c r="D61">
-        <f>r_*(B61-C61)^2+B61*(C61-1)</f>
-        <v>6.1466921509412388E-2</v>
-      </c>
-      <c r="E61">
-        <f>A61/lambda</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F61">
-        <f>1+1/gamma*(1-EXP(-gamma*A61))</f>
-        <v>1.3333329947895096</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>2.6889653192617251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>4.7</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="5"/>
-        <v>0.51029314385914493</v>
-      </c>
-      <c r="C62">
-        <f>(y0-1)*EXP(-gamma*A62)+1</f>
-        <v>0.99999924760170078</v>
-      </c>
-      <c r="D62">
-        <f>r_*(B62-C62)^2+B62*(C62-1)</f>
-        <v>5.9952633066985173E-2</v>
-      </c>
-      <c r="E62">
-        <f>A62/lambda</f>
-        <v>4.7</v>
-      </c>
-      <c r="F62">
-        <f>1+1/gamma*(1-EXP(-gamma*A62))</f>
-        <v>1.3333330825339003</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>2.7227167964142036</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>4.8</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="5"/>
-        <v>0.51628840716584345</v>
-      </c>
-      <c r="C63">
-        <f>(y0-1)*EXP(-gamma*A63)+1</f>
-        <v>0.9999994426096307</v>
-      </c>
-      <c r="D63">
-        <f>r_*(B63-C63)^2+B63*(C63-1)</f>
-        <v>5.8493803678339257E-2</v>
-      </c>
-      <c r="E63">
-        <f>A63/lambda</f>
-        <v>4.8</v>
-      </c>
-      <c r="F63">
-        <f>1+1/gamma*(1-EXP(-gamma*A63))</f>
-        <v>1.3333331475365435</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>2.7564630810774982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="5"/>
-        <v>0.52213778753367746</v>
-      </c>
-      <c r="C64">
-        <f>(y0-1)*EXP(-gamma*A64)+1</f>
-        <v>0.99999958707505843</v>
-      </c>
-      <c r="D64">
-        <f>r_*(B64-C64)^2+B64*(C64-1)</f>
-        <v>5.7087759261516331E-2</v>
-      </c>
-      <c r="E64">
-        <f>A64/lambda</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F64">
-        <f>1+1/gamma*(1-EXP(-gamma*A64))</f>
-        <v>1.3333331956916861</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>2.7902042909192217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="5"/>
-        <v>0.52784656345982905</v>
-      </c>
-      <c r="C65">
-        <f>(y0-1)*EXP(-gamma*A65)+1</f>
-        <v>0.99999969409767953</v>
-      </c>
-      <c r="D65">
-        <f>r_*(B65-C65)^2+B65*(C65-1)</f>
-        <v>5.5731983223292154E-2</v>
-      </c>
-      <c r="E65">
-        <f>A65/lambda</f>
-        <v>5</v>
-      </c>
-      <c r="F65">
-        <f>1+1/gamma*(1-EXP(-gamma*A65))</f>
-        <v>1.3333332313658932</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>2.8239405417362726</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="5"/>
-        <v>0.53341976178215822</v>
-      </c>
-      <c r="C66">
-        <f>(y0-1)*EXP(-gamma*A66)+1</f>
-        <v>0.9999997733819872</v>
-      </c>
-      <c r="D66">
-        <f>r_*(B66-C66)^2+B66*(C66-1)</f>
-        <v>5.4424105923597733E-2</v>
-      </c>
-      <c r="E66">
-        <f>A66/lambda</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F66">
-        <f>1+1/gamma*(1-EXP(-gamma*A66))</f>
-        <v>1.3333332577939956</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>2.8576719470306311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>5.2</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="5"/>
-        <v>0.53886217237451806</v>
-      </c>
-      <c r="C67">
-        <f>(y0-1)*EXP(-gamma*A67)+1</f>
-        <v>0.99999983211724697</v>
-      </c>
-      <c r="D67">
-        <f>r_*(B67-C67)^2+B67*(C67-1)</f>
-        <v>5.3161894842585204E-2</v>
-      </c>
-      <c r="E67">
-        <f>A67/lambda</f>
-        <v>5.2</v>
-      </c>
-      <c r="F67">
-        <f>1+1/gamma*(1-EXP(-gamma*A67))</f>
-        <v>1.3333332773724156</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>2.891398617714998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>5.3</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="5"/>
-        <v>0.54417836185877655</v>
-      </c>
-      <c r="C68">
-        <f>(y0-1)*EXP(-gamma*A68)+1</f>
-        <v>0.99999987562939763</v>
-      </c>
-      <c r="D68">
-        <f>r_*(B68-C68)^2+B68*(C68-1)</f>
-        <v>5.1943245424244465E-2</v>
-      </c>
-      <c r="E68">
-        <f>A68/lambda</f>
-        <v>5.3</v>
-      </c>
-      <c r="F68">
-        <f>1+1/gamma*(1-EXP(-gamma*A68))</f>
-        <v>1.3333332918764658</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>2.9251206619185774</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>5.4</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="5"/>
-        <v>0.54937268640120107</v>
-      </c>
-      <c r="C69">
-        <f>(y0-1)*EXP(-gamma*A69)+1</f>
-        <v>0.99999990786399162</v>
-      </c>
-      <c r="D69">
-        <f>r_*(B69-C69)^2+B69*(C69-1)</f>
-        <v>5.076617256381228E-2</v>
-      </c>
-      <c r="E69">
-        <f>A69/lambda</f>
-        <v>5.4</v>
-      </c>
-      <c r="F69">
-        <f>1+1/gamma*(1-EXP(-gamma*A69))</f>
-        <v>1.3333333026213305</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>2.9588381848695917</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>5.5</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="5"/>
-        <v>0.55444930365758227</v>
-      </c>
-      <c r="C70">
-        <f>(y0-1)*EXP(-gamma*A70)+1</f>
-        <v>0.99999993174396629</v>
-      </c>
-      <c r="D70">
-        <f>r_*(B70-C70)^2+B70*(C70-1)</f>
-        <v>4.9628802702532455E-2</v>
-      </c>
-      <c r="E70">
-        <f>A70/lambda</f>
-        <v>5.5</v>
-      </c>
-      <c r="F70">
-        <f>1+1/gamma*(1-EXP(-gamma*A70))</f>
-        <v>1.3333333105813221</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>2.9925512888360957</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>5.6</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="5"/>
-        <v>0.55941218392783554</v>
-      </c>
-      <c r="C71">
-        <f>(y0-1)*EXP(-gamma*A71)+1</f>
-        <v>0.99999994943468651</v>
-      </c>
-      <c r="D71">
-        <f>r_*(B71-C71)^2+B71*(C71-1)</f>
-        <v>4.8529366491727524E-2</v>
-      </c>
-      <c r="E71">
-        <f>A71/lambda</f>
-        <v>5.6</v>
-      </c>
-      <c r="F71">
-        <f>1+1/gamma*(1-EXP(-gamma*A71))</f>
-        <v>1.3333333164782288</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>3.0262600731106928</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>5.7</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="5"/>
-        <v>0.56426512057700828</v>
-      </c>
-      <c r="C72">
-        <f>(y0-1)*EXP(-gamma*A72)+1</f>
-        <v>0.99999996254029444</v>
-      </c>
-      <c r="D72">
-        <f>r_*(B72-C72)^2+B72*(C72-1)</f>
-        <v>4.7466191987987211E-2</v>
-      </c>
-      <c r="E72">
-        <f>A72/lambda</f>
-        <v>5.7</v>
-      </c>
-      <c r="F72">
-        <f>1+1/gamma*(1-EXP(-gamma*A72))</f>
-        <v>1.3333333208467648</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>3.0599646340278972</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>5.8</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="5"/>
-        <v>0.56901173977580699</v>
-      </c>
-      <c r="C73">
-        <f>(y0-1)*EXP(-gamma*A73)+1</f>
-        <v>0.99999997224916759</v>
-      </c>
-      <c r="D73">
-        <f>r_*(B73-C73)^2+B73*(C73-1)</f>
-        <v>4.6437698342078448E-2</v>
-      </c>
-      <c r="E73">
-        <f>A73/lambda</f>
-        <v>5.8</v>
-      </c>
-      <c r="F73">
-        <f>1+1/gamma*(1-EXP(-gamma*A73))</f>
-        <v>1.3333333240830558</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>3.0936650650054314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>5.9</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="5"/>
-        <v>0.57365550961001488</v>
-      </c>
-      <c r="C74">
-        <f>(y0-1)*EXP(-gamma*A74)+1</f>
-        <v>0.99999997944167773</v>
-      </c>
-      <c r="D74">
-        <f>r_*(B74-C74)^2+B74*(C74-1)</f>
-        <v>4.5442389945615586E-2</v>
-      </c>
-      <c r="E74">
-        <f>A74/lambda</f>
-        <v>5.9</v>
-      </c>
-      <c r="F74">
-        <f>1+1/gamma*(1-EXP(-gamma*A74))</f>
-        <v>1.3333333264805591</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>3.1273614566026988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="5"/>
-        <v>0.57819974860457646</v>
-      </c>
-      <c r="C75">
-        <f>(y0-1)*EXP(-gamma*A75)+1</f>
-        <v>0.99999998477002028</v>
-      </c>
-      <c r="D75">
-        <f>r_*(B75-C75)^2+B75*(C75-1)</f>
-        <v>4.4478851001335598E-2</v>
-      </c>
-      <c r="E75">
-        <f>A75/lambda</f>
-        <v>6</v>
-      </c>
-      <c r="F75">
-        <f>1+1/gamma*(1-EXP(-gamma*A75))</f>
-        <v>1.3333333282566735</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>3.1610538965912527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>6.1</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="5"/>
-        <v>0.58264763370470996</v>
-      </c>
-      <c r="C76">
-        <f>(y0-1)*EXP(-gamma*A76)+1</f>
-        <v>0.99999998871735352</v>
-      </c>
-      <c r="D76">
-        <f>r_*(B76-C76)^2+B76*(C76-1)</f>
-        <v>4.3545740484842638E-2</v>
-      </c>
-      <c r="E76">
-        <f>A76/lambda</f>
-        <v>6.1</v>
-      </c>
-      <c r="F76">
-        <f>1+1/gamma*(1-EXP(-gamma*A76))</f>
-        <v>1.3333333295724512</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>3.1947424700332849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>6.2</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="5"/>
-        <v>0.58700220775319423</v>
-      </c>
-      <c r="C77">
-        <f>(y0-1)*EXP(-gamma*A77)+1</f>
-        <v>0.99999999164160991</v>
-      </c>
-      <c r="D77">
-        <f>r_*(B77-C77)^2+B77*(C77-1)</f>
-        <v>4.2641787467792187E-2</v>
-      </c>
-      <c r="E77">
-        <f>A77/lambda</f>
-        <v>6.2</v>
-      </c>
-      <c r="F77">
-        <f>1+1/gamma*(1-EXP(-gamma*A77))</f>
-        <v>1.3333333305472033</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>3.2284272593651271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>6.3</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="5"/>
-        <v>0.59126638649997343</v>
-      </c>
-      <c r="C78">
-        <f>(y0-1)*EXP(-gamma*A78)+1</f>
-        <v>0.99999999380795235</v>
-      </c>
-      <c r="D78">
-        <f>r_*(B78-C78)^2+B78*(C78-1)</f>
-        <v>4.1765786774598641E-2</v>
-      </c>
-      <c r="E78">
-        <f>A78/lambda</f>
-        <v>6.3</v>
-      </c>
-      <c r="F78">
-        <f>1+1/gamma*(1-EXP(-gamma*A78))</f>
-        <v>1.3333333312693174</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>3.262108344483468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <v>6.4</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="5"/>
-        <v>0.59544296517743334</v>
-      </c>
-      <c r="C79">
-        <f>(y0-1)*EXP(-gamma*A79)+1</f>
-        <v>0.99999999541281825</v>
-      </c>
-      <c r="D79">
-        <f>r_*(B79-C79)^2+B79*(C79-1)</f>
-        <v>4.0916594946813434E-2</v>
-      </c>
-      <c r="E79">
-        <f>A79/lambda</f>
-        <v>6.4</v>
-      </c>
-      <c r="F79">
-        <f>1+1/gamma*(1-EXP(-gamma*A79))</f>
-        <v>1.3333333318042726</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>3.2957858028326088</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
-        <v>6.5</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="5"/>
-        <v>0.59953462467211471</v>
-      </c>
-      <c r="C80">
-        <f>(y0-1)*EXP(-gamma*A80)+1</f>
-        <v>0.99999999660173222</v>
-      </c>
-      <c r="D80">
-        <f>r_*(B80-C80)^2+B80*(C80-1)</f>
-        <v>4.0093126491302526E-2</v>
-      </c>
-      <c r="E80">
-        <f>A80/lambda</f>
-        <v>6.5</v>
-      </c>
-      <c r="F80">
-        <f>1+1/gamma*(1-EXP(-gamma*A80))</f>
-        <v>1.3333333322005774</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ref="G80:G143" si="6">F80/(1-B80)</f>
-        <v>3.3294597094914797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>6.6</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="5"/>
-        <v>0.60354393732124501</v>
-      </c>
-      <c r="C81">
-        <f>(y0-1)*EXP(-gamma*A81)+1</f>
-        <v>0.99999999748250123</v>
-      </c>
-      <c r="D81">
-        <f>r_*(B81-C81)^2+B81*(C81-1)</f>
-        <v>3.9294350390225288E-2</v>
-      </c>
-      <c r="E81">
-        <f>A81/lambda</f>
-        <v>6.6</v>
-      </c>
-      <c r="F81">
-        <f>1+1/gamma*(1-EXP(-gamma*A81))</f>
-        <v>1.333333332494167</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="6"/>
-        <v>3.3631301372595122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>6.7</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="5"/>
-        <v>0.60747337236026755</v>
-      </c>
-      <c r="C82">
-        <f>(y0-1)*EXP(-gamma*A82)+1</f>
-        <v>0.99999999813499107</v>
-      </c>
-      <c r="D82">
-        <f>r_*(B82-C82)^2+B82*(C82-1)</f>
-        <v>3.8519286852579201E-2</v>
-      </c>
-      <c r="E82">
-        <f>A82/lambda</f>
-        <v>6.7</v>
-      </c>
-      <c r="F82">
-        <f>1+1/gamma*(1-EXP(-gamma*A82))</f>
-        <v>1.3333333327116637</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="6"/>
-        <v>3.3967971567407127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>6.8</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="5"/>
-        <v>0.6113253010455254</v>
-      </c>
-      <c r="C83">
-        <f>(y0-1)*EXP(-gamma*A83)+1</f>
-        <v>0.99999999861836741</v>
-      </c>
-      <c r="D83">
-        <f>r_*(B83-C83)^2+B83*(C83-1)</f>
-        <v>3.7767004288708092E-2</v>
-      </c>
-      <c r="E83">
-        <f>A83/lambda</f>
-        <v>6.8</v>
-      </c>
-      <c r="F83">
-        <f>1+1/gamma*(1-EXP(-gamma*A83))</f>
-        <v>1.333333332872789</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="6"/>
-        <v>3.4304608364254809</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>6.9</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="5"/>
-        <v>0.6151020014743962</v>
-      </c>
-      <c r="C84">
-        <f>(y0-1)*EXP(-gamma*A84)+1</f>
-        <v>0.99999999897646141</v>
-      </c>
-      <c r="D84">
-        <f>r_*(B84-C84)^2+B84*(C84-1)</f>
-        <v>3.703661649069432E-2</v>
-      </c>
-      <c r="E84">
-        <f>A84/lambda</f>
-        <v>6.9</v>
-      </c>
-      <c r="F84">
-        <f>1+1/gamma*(1-EXP(-gamma*A84))</f>
-        <v>1.3333333329921537</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="6"/>
-        <v>3.4641212427698789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>7</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="5"/>
-        <v>0.61880566312346563</v>
-      </c>
-      <c r="C85">
-        <f>(y0-1)*EXP(-gamma*A85)+1</f>
-        <v>0.99999999924174399</v>
-      </c>
-      <c r="D85">
-        <f>r_*(B85-C85)^2+B85*(C85-1)</f>
-        <v>3.6327280002950629E-2</v>
-      </c>
-      <c r="E85">
-        <f>A85/lambda</f>
-        <v>7</v>
-      </c>
-      <c r="F85">
-        <f>1+1/gamma*(1-EXP(-gamma*A85))</f>
-        <v>1.3333333330805814</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="6"/>
-        <v>3.4977784402721515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>7.1</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="5"/>
-        <v>0.62243839112376065</v>
-      </c>
-      <c r="C86">
-        <f>(y0-1)*EXP(-gamma*A86)+1</f>
-        <v>0.99999999943827012</v>
-      </c>
-      <c r="D86">
-        <f>r_*(B86-C86)^2+B86*(C86-1)</f>
-        <v>3.5638191668617522E-2</v>
-      </c>
-      <c r="E86">
-        <f>A86/lambda</f>
-        <v>7.1</v>
-      </c>
-      <c r="F86">
-        <f>1+1/gamma*(1-EXP(-gamma*A86))</f>
-        <v>1.3333333331460899</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="6"/>
-        <v>3.5314324915464121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>7.2</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="5"/>
-        <v>0.62600221029062242</v>
-      </c>
-      <c r="C87">
-        <f>(y0-1)*EXP(-gamma*A87)+1</f>
-        <v>0.99999999958386021</v>
-      </c>
-      <c r="D87">
-        <f>r_*(B87-C87)^2+B87*(C87-1)</f>
-        <v>3.4968586338552841E-2</v>
-      </c>
-      <c r="E87">
-        <f>A87/lambda</f>
-        <v>7.2</v>
-      </c>
-      <c r="F87">
-        <f>1+1/gamma*(1-EXP(-gamma*A87))</f>
-        <v>1.33333333319462</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="6"/>
-        <v>3.56508345739346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>7.3</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="5"/>
-        <v>0.62949906892447771</v>
-      </c>
-      <c r="C88">
-        <f>(y0-1)*EXP(-gamma*A88)+1</f>
-        <v>0.99999999969171605</v>
-      </c>
-      <c r="D88">
-        <f>r_*(B88-C88)^2+B88*(C88-1)</f>
-        <v>3.4317734730783027E-2</v>
-      </c>
-      <c r="E88">
-        <f>A88/lambda</f>
-        <v>7.3</v>
-      </c>
-      <c r="F88">
-        <f>1+1/gamma*(1-EXP(-gamma*A88))</f>
-        <v>1.3333333332305721</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="6"/>
-        <v>3.5987313968687102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>7.4</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="5"/>
-        <v>0.63293084239755604</v>
-      </c>
-      <c r="C89">
-        <f>(y0-1)*EXP(-gamma*A89)+1</f>
-        <v>0.99999999977161769</v>
-      </c>
-      <c r="D89">
-        <f>r_*(B89-C89)^2+B89*(C89-1)</f>
-        <v>3.3684941429275694E-2</v>
-      </c>
-      <c r="E89">
-        <f>A89/lambda</f>
-        <v>7.4</v>
-      </c>
-      <c r="F89">
-        <f>1+1/gamma*(1-EXP(-gamma*A89))</f>
-        <v>1.3333333332572059</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="6"/>
-        <v>3.6323763673473191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>7.5</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="5"/>
-        <v>0.63629933654048354</v>
-      </c>
-      <c r="C90">
-        <f>(y0-1)*EXP(-gamma*A90)+1</f>
-        <v>0.99999999983081023</v>
-      </c>
-      <c r="D90">
-        <f>r_*(B90-C90)^2+B90*(C90-1)</f>
-        <v>3.3069543011800553E-2</v>
-      </c>
-      <c r="E90">
-        <f>A90/lambda</f>
-        <v>7.5</v>
-      </c>
-      <c r="F90">
-        <f>1+1/gamma*(1-EXP(-gamma*A90))</f>
-        <v>1.3333333332769368</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="6"/>
-        <v>3.6660184245865426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>7.6</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="5"/>
-        <v>0.63960629084166354</v>
-      </c>
-      <c r="C91">
-        <f>(y0-1)*EXP(-gamma*A91)+1</f>
-        <v>0.99999999987466115</v>
-      </c>
-      <c r="D91">
-        <f>r_*(B91-C91)^2+B91*(C91-1)</f>
-        <v>3.2470906297472721E-2</v>
-      </c>
-      <c r="E91">
-        <f>A91/lambda</f>
-        <v>7.6</v>
-      </c>
-      <c r="F91">
-        <f>1+1/gamma*(1-EXP(-gamma*A91))</f>
-        <v>1.3333333332915536</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="6"/>
-        <v>3.699657622785427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>7.7</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="5"/>
-        <v>0.6428533814714108</v>
-      </c>
-      <c r="C92">
-        <f>(y0-1)*EXP(-gamma*A92)+1</f>
-        <v>0.99999999990714672</v>
-      </c>
-      <c r="D92">
-        <f>r_*(B92-C92)^2+B92*(C92-1)</f>
-        <v>3.1888426705329244E-2</v>
-      </c>
-      <c r="E92">
-        <f>A92/lambda</f>
-        <v>7.7</v>
-      </c>
-      <c r="F92">
-        <f>1+1/gamma*(1-EXP(-gamma*A92))</f>
-        <v>1.3333333333023822</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="6"/>
-        <v>3.7332940146419178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>7.8</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="5"/>
-        <v>0.64604222414194368</v>
-      </c>
-      <c r="C93">
-        <f>(y0-1)*EXP(-gamma*A93)+1</f>
-        <v>0.99999999993121258</v>
-      </c>
-      <c r="D93">
-        <f>r_*(B93-C93)^2+B93*(C93-1)</f>
-        <v>3.1321526715982012E-2</v>
-      </c>
-      <c r="E93">
-        <f>A93/lambda</f>
-        <v>7.8</v>
-      </c>
-      <c r="F93">
-        <f>1+1/gamma*(1-EXP(-gamma*A93))</f>
-        <v>1.3333333333104043</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="6"/>
-        <v>3.7669276514074825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>7.9000000000000101</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="5"/>
-        <v>0.64917437681354218</v>
-      </c>
-      <c r="C94">
-        <f>(y0-1)*EXP(-gamma*A94)+1</f>
-        <v>0.99999999994904099</v>
-      </c>
-      <c r="D94">
-        <f>r_*(B94-C94)^2+B94*(C94-1)</f>
-        <v>3.0769654429021472E-2</v>
-      </c>
-      <c r="E94">
-        <f>A94/lambda</f>
-        <v>7.9000000000000101</v>
-      </c>
-      <c r="F94">
-        <f>1+1/gamma*(1-EXP(-gamma*A94))</f>
-        <v>1.3333333333163471</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="6"/>
-        <v>3.8005585829393742</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>8</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="5"/>
-        <v>0.65225134225644399</v>
-      </c>
-      <c r="C95">
-        <f>(y0-1)*EXP(-gamma*A95)+1</f>
-        <v>0.99999999996224864</v>
-      </c>
-      <c r="D95">
-        <f>r_*(B95-C95)^2+B95*(C95-1)</f>
-        <v>3.0232282209423849E-2</v>
-      </c>
-      <c r="E95">
-        <f>A95/lambda</f>
-        <v>8</v>
-      </c>
-      <c r="F95">
-        <f>1+1/gamma*(1-EXP(-gamma*A95))</f>
-        <v>1.3333333333207495</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="6"/>
-        <v>3.8341868577505878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>8.1</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="5"/>
-        <v>0.65527457047738635</v>
-      </c>
-      <c r="C96">
-        <f>(y0-1)*EXP(-gamma*A96)+1</f>
-        <v>0.99999999997203315</v>
-      </c>
-      <c r="D96">
-        <f>r_*(B96-C96)^2+B96*(C96-1)</f>
-        <v>2.9708905416741208E-2</v>
-      </c>
-      <c r="E96">
-        <f>A96/lambda</f>
-        <v>8.1</v>
-      </c>
-      <c r="F96">
-        <f>1+1/gamma*(1-EXP(-gamma*A96))</f>
-        <v>1.3333333333240112</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="6"/>
-        <v>3.8678125230577045</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>8.2000000000000099</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="5"/>
-        <v>0.65824546101906078</v>
-      </c>
-      <c r="C97">
-        <f>(y0-1)*EXP(-gamma*A97)+1</f>
-        <v>0.99999999997928157</v>
-      </c>
-      <c r="D97">
-        <f>r_*(B97-C97)^2+B97*(C97-1)</f>
-        <v>2.9199041211340458E-2</v>
-      </c>
-      <c r="E97">
-        <f>A97/lambda</f>
-        <v>8.2000000000000099</v>
-      </c>
-      <c r="F97">
-        <f>1+1/gamma*(1-EXP(-gamma*A97))</f>
-        <v>1.3333333333264272</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="6"/>
-        <v>3.9014356248266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>8.3000000000000096</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="5"/>
-        <v>0.66116536514019486</v>
-      </c>
-      <c r="C98">
-        <f>(y0-1)*EXP(-gamma*A98)+1</f>
-        <v>0.9999999999846515</v>
-      </c>
-      <c r="D98">
-        <f>r_*(B98-C98)^2+B98*(C98-1)</f>
-        <v>2.8702227432396171E-2</v>
-      </c>
-      <c r="E98">
-        <f>A98/lambda</f>
-        <v>8.3000000000000096</v>
-      </c>
-      <c r="F98">
-        <f>1+1/gamma*(1-EXP(-gamma*A98))</f>
-        <v>1.3333333333282171</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="6"/>
-        <v>3.9350562078162161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>8.4000000000000092</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="5"/>
-        <v>0.66403558788343442</v>
-      </c>
-      <c r="C99">
-        <f>(y0-1)*EXP(-gamma*A99)+1</f>
-        <v>0.99999999998862954</v>
-      </c>
-      <c r="D99">
-        <f>r_*(B99-C99)^2+B99*(C99-1)</f>
-        <v>2.8218021542746954E-2</v>
-      </c>
-      <c r="E99">
-        <f>A99/lambda</f>
-        <v>8.4000000000000092</v>
-      </c>
-      <c r="F99">
-        <f>1+1/gamma*(1-EXP(-gamma*A99))</f>
-        <v>1.3333333333295432</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="6"/>
-        <v>3.9686743156204662</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>8.5</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="5"/>
-        <v>0.66685739003770883</v>
-      </c>
-      <c r="C100">
-        <f>(y0-1)*EXP(-gamma*A100)+1</f>
-        <v>0.99999999999157652</v>
-      </c>
-      <c r="D100">
-        <f>r_*(B100-C100)^2+B100*(C100-1)</f>
-        <v>2.7745999636101443E-2</v>
-      </c>
-      <c r="E100">
-        <f>A100/lambda</f>
-        <v>8.5</v>
-      </c>
-      <c r="F100">
-        <f>1+1/gamma*(1-EXP(-gamma*A100))</f>
-        <v>1.3333333333305255</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="6"/>
-        <v>4.0022899907083254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>8.6000000000000103</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="5"/>
-        <v>0.66963199000131923</v>
-      </c>
-      <c r="C101">
-        <f>(y0-1)*EXP(-gamma*A101)+1</f>
-        <v>0.99999999999375977</v>
-      </c>
-      <c r="D101">
-        <f>r_*(B101-C101)^2+B101*(C101-1)</f>
-        <v>2.7285755502412665E-2</v>
-      </c>
-      <c r="E101">
-        <f>A101/lambda</f>
-        <v>8.6000000000000103</v>
-      </c>
-      <c r="F101">
-        <f>1+1/gamma*(1-EXP(-gamma*A101))</f>
-        <v>1.3333333333312534</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="6"/>
-        <v>4.0359032744622505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>8.7000000000000099</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="5"/>
-        <v>0.67236056555156054</v>
-      </c>
-      <c r="C102">
-        <f>(y0-1)*EXP(-gamma*A102)+1</f>
-        <v>0.99999999999537714</v>
-      </c>
-      <c r="D102">
-        <f>r_*(B102-C102)^2+B102*(C102-1)</f>
-        <v>2.6836899747557773E-2</v>
-      </c>
-      <c r="E102">
-        <f>A102/lambda</f>
-        <v>8.7000000000000099</v>
-      </c>
-      <c r="F102">
-        <f>1+1/gamma*(1-EXP(-gamma*A102))</f>
-        <v>1.3333333333317925</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="6"/>
-        <v>4.0695142072149402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>8.8000000000000096</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="5"/>
-        <v>0.67504425552631631</v>
-      </c>
-      <c r="C103">
-        <f>(y0-1)*EXP(-gamma*A103)+1</f>
-        <v>0.9999999999965753</v>
-      </c>
-      <c r="D103">
-        <f>r_*(B103-C103)^2+B103*(C103-1)</f>
-        <v>2.6399058963743238E-2</v>
-      </c>
-      <c r="E103">
-        <f>A103/lambda</f>
-        <v>8.8000000000000096</v>
-      </c>
-      <c r="F103">
-        <f>1+1/gamma*(1-EXP(-gamma*A103))</f>
-        <v>1.3333333333321917</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="6"/>
-        <v>4.1031228282846088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>8.9000000000000092</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="5"/>
-        <v>0.67768416142269061</v>
-      </c>
-      <c r="C104">
-        <f>(y0-1)*EXP(-gamma*A104)+1</f>
-        <v>0.99999999999746292</v>
-      </c>
-      <c r="D104">
-        <f>r_*(B104-C104)^2+B104*(C104-1)</f>
-        <v>2.5971874947320329E-2</v>
-      </c>
-      <c r="E104">
-        <f>A104/lambda</f>
-        <v>8.9000000000000092</v>
-      </c>
-      <c r="F104">
-        <f>1+1/gamma*(1-EXP(-gamma*A104))</f>
-        <v>1.3333333333324875</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="6"/>
-        <v>4.1367291760087657</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>9.0000000000000107</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="5"/>
-        <v>0.68028134891742265</v>
-      </c>
-      <c r="C105">
-        <f>(y0-1)*EXP(-gamma*A105)+1</f>
-        <v>0.9999999999981205</v>
-      </c>
-      <c r="D105">
-        <f>r_*(B105-C105)^2+B105*(C105-1)</f>
-        <v>2.555500396093667E-2</v>
-      </c>
-      <c r="E105">
-        <f>A105/lambda</f>
-        <v>9.0000000000000107</v>
-      </c>
-      <c r="F105">
-        <f>1+1/gamma*(1-EXP(-gamma*A105))</f>
-        <v>1.3333333333327069</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="6"/>
-        <v>4.1703332877766073</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>9.1000000000000103</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ref="B106:B147" si="7">(A106-A105)*D105+B105</f>
-        <v>0.68283684931351629</v>
-      </c>
-      <c r="C106">
-        <f>(y0-1)*EXP(-gamma*A106)+1</f>
-        <v>0.99999999999860756</v>
-      </c>
-      <c r="D106">
-        <f>r_*(B106-C106)^2+B106*(C106-1)</f>
-        <v>2.5148116037172669E-2</v>
-      </c>
-      <c r="E106">
-        <f>A106/lambda</f>
-        <v>9.1000000000000103</v>
-      </c>
-      <c r="F106">
-        <f>1+1/gamma*(1-EXP(-gamma*A106))</f>
-        <v>1.3333333333328692</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="6"/>
-        <v>4.2039352000600836</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>9.2000000000000099</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="7"/>
-        <v>0.68535166091723354</v>
-      </c>
-      <c r="C107">
-        <f>(y0-1)*EXP(-gamma*A107)+1</f>
-        <v>0.99999999999896849</v>
-      </c>
-      <c r="D107">
-        <f>r_*(B107-C107)^2+B107*(C107-1)</f>
-        <v>2.4750894321016667E-2</v>
-      </c>
-      <c r="E107">
-        <f>A107/lambda</f>
-        <v>9.2000000000000099</v>
-      </c>
-      <c r="F107">
-        <f>1+1/gamma*(1-EXP(-gamma*A107))</f>
-        <v>1.3333333333329895</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="6"/>
-        <v>4.2375349484437095</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>9.3000000000000096</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="7"/>
-        <v>0.68782675034933516</v>
-      </c>
-      <c r="C108">
-        <f>(y0-1)*EXP(-gamma*A108)+1</f>
-        <v>0.99999999999923583</v>
-      </c>
-      <c r="D108">
-        <f>r_*(B108-C108)^2+B108*(C108-1)</f>
-        <v>2.4363034448719189E-2</v>
-      </c>
-      <c r="E108">
-        <f>A108/lambda</f>
-        <v>9.3000000000000096</v>
-      </c>
-      <c r="F108">
-        <f>1+1/gamma*(1-EXP(-gamma*A108))</f>
-        <v>1.3333333333330786</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="6"/>
-        <v>4.2711325676531713</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>9.4000000000000092</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="7"/>
-        <v>0.69026305379420705</v>
-      </c>
-      <c r="C109">
-        <f>(y0-1)*EXP(-gamma*A109)+1</f>
-        <v>0.9999999999994339</v>
-      </c>
-      <c r="D109">
-        <f>r_*(B109-C109)^2+B109*(C109-1)</f>
-        <v>2.3984243960744136E-2</v>
-      </c>
-      <c r="E109">
-        <f>A109/lambda</f>
-        <v>9.4000000000000092</v>
-      </c>
-      <c r="F109">
-        <f>1+1/gamma*(1-EXP(-gamma*A109))</f>
-        <v>1.3333333333331447</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="6"/>
-        <v>4.304728091582791</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>9.5000000000000107</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="7"/>
-        <v>0.69266147819028145</v>
-      </c>
-      <c r="C110">
-        <f>(y0-1)*EXP(-gamma*A110)+1</f>
-        <v>0.99999999999958067</v>
-      </c>
-      <c r="D110">
-        <f>r_*(B110-C110)^2+B110*(C110-1)</f>
-        <v>2.3614241746690818E-2</v>
-      </c>
-      <c r="E110">
-        <f>A110/lambda</f>
-        <v>9.5000000000000107</v>
-      </c>
-      <c r="F110">
-        <f>1+1/gamma*(1-EXP(-gamma*A110))</f>
-        <v>1.3333333333331936</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="6"/>
-        <v>4.3383215533218964</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>9.6000000000000103</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="7"/>
-        <v>0.69502290236495057</v>
-      </c>
-      <c r="C111">
-        <f>(y0-1)*EXP(-gamma*A111)+1</f>
-        <v>0.99999999999968936</v>
-      </c>
-      <c r="D111">
-        <f>r_*(B111-C111)^2+B111*(C111-1)</f>
-        <v>2.3252757520211345E-2</v>
-      </c>
-      <c r="E111">
-        <f>A111/lambda</f>
-        <v>9.6000000000000103</v>
-      </c>
-      <c r="F111">
-        <f>1+1/gamma*(1-EXP(-gamma*A111))</f>
-        <v>1.3333333333332298</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="6"/>
-        <v>4.3719129851801588</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>9.7000000000000099</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="7"/>
-        <v>0.6973481781169717</v>
-      </c>
-      <c r="C112">
-        <f>(y0-1)*EXP(-gamma*A112)+1</f>
-        <v>0.99999999999976985</v>
-      </c>
-      <c r="D112">
-        <f>r_*(B112-C112)^2+B112*(C112-1)</f>
-        <v>2.2899531322083753E-2</v>
-      </c>
-      <c r="E112">
-        <f>A112/lambda</f>
-        <v>9.7000000000000099</v>
-      </c>
-      <c r="F112">
-        <f>1+1/gamma*(1-EXP(-gamma*A112))</f>
-        <v>1.3333333333332567</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="6"/>
-        <v>4.4055024187119409</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>9.8000000000000096</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="7"/>
-        <v>0.69963813124918006</v>
-      </c>
-      <c r="C113">
-        <f>(y0-1)*EXP(-gamma*A113)+1</f>
-        <v>0.99999999999982947</v>
-      </c>
-      <c r="D113">
-        <f>r_*(B113-C113)^2+B113*(C113-1)</f>
-        <v>2.2554313049726275E-2</v>
-      </c>
-      <c r="E113">
-        <f>A113/lambda</f>
-        <v>9.8000000000000096</v>
-      </c>
-      <c r="F113">
-        <f>1+1/gamma*(1-EXP(-gamma*A113))</f>
-        <v>1.3333333333332764</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="6"/>
-        <v>4.439089884739694</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>9.9000000000000092</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="7"/>
-        <v>0.70189356255415269</v>
-      </c>
-      <c r="C114">
-        <f>(y0-1)*EXP(-gamma*A114)+1</f>
-        <v>0.99999999999987366</v>
-      </c>
-      <c r="D114">
-        <f>r_*(B114-C114)^2+B114*(C114-1)</f>
-        <v>2.2216862011556208E-2</v>
-      </c>
-      <c r="E114">
-        <f>A114/lambda</f>
-        <v>9.9000000000000092</v>
-      </c>
-      <c r="F114">
-        <f>1+1/gamma*(1-EXP(-gamma*A114))</f>
-        <v>1.3333333333332913</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="6"/>
-        <v>4.4726754133764679</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>10</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="7"/>
-        <v>0.70411524875530807</v>
-      </c>
-      <c r="C115">
-        <f>(y0-1)*EXP(-gamma*A115)+1</f>
-        <v>0.99999999999990641</v>
-      </c>
-      <c r="D115">
-        <f>r_*(B115-C115)^2+B115*(C115-1)</f>
-        <v>2.1886946504703561E-2</v>
-      </c>
-      <c r="E115">
-        <f>A115/lambda</f>
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <f>1+1/gamma*(1-EXP(-gamma*A115))</f>
-        <v>1.3333333333333022</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="6"/>
-        <v>4.5062590340475399</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>10.1</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="7"/>
-        <v>0.7063039434057784</v>
-      </c>
-      <c r="C116">
-        <f>(y0-1)*EXP(-gamma*A116)+1</f>
-        <v>0.99999999999993072</v>
-      </c>
-      <c r="D116">
-        <f>r_*(B116-C116)^2+B116*(C116-1)</f>
-        <v>2.1564343414689952E-2</v>
-      </c>
-      <c r="E116">
-        <f>A116/lambda</f>
-        <v>10.1</v>
-      </c>
-      <c r="F116">
-        <f>1+1/gamma*(1-EXP(-gamma*A116))</f>
-        <v>1.3333333333333102</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="6"/>
-        <v>4.5398407755112613</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="7"/>
-        <v>0.70846037774724735</v>
-      </c>
-      <c r="C117">
-        <f>(y0-1)*EXP(-gamma*A117)+1</f>
-        <v>0.9999999999999486</v>
-      </c>
-      <c r="D117">
-        <f>r_*(B117-C117)^2+B117*(C117-1)</f>
-        <v>2.1248837835775514E-2</v>
-      </c>
-      <c r="E117">
-        <f>A117/lambda</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F117">
-        <f>1+1/gamma*(1-EXP(-gamma*A117))</f>
-        <v>1.3333333333333162</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="6"/>
-        <v>4.5734206658790688</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>10.3</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="7"/>
-        <v>0.71058526153082491</v>
-      </c>
-      <c r="C118">
-        <f>(y0-1)*EXP(-gamma*A118)+1</f>
-        <v>0.99999999999996192</v>
-      </c>
-      <c r="D118">
-        <f>r_*(B118-C118)^2+B118*(C118-1)</f>
-        <v>2.0940222710762686E-2</v>
-      </c>
-      <c r="E118">
-        <f>A118/lambda</f>
-        <v>10.3</v>
-      </c>
-      <c r="F118">
-        <f>1+1/gamma*(1-EXP(-gamma*A118))</f>
-        <v>1.3333333333333206</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="6"/>
-        <v>4.6069987326347963</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>10.4</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="7"/>
-        <v>0.71267928380190115</v>
-      </c>
-      <c r="C119">
-        <f>(y0-1)*EXP(-gamma*A119)+1</f>
-        <v>0.9999999999999718</v>
-      </c>
-      <c r="D119">
-        <f>r_*(B119-C119)^2+B119*(C119-1)</f>
-        <v>2.0638298489122967E-2</v>
-      </c>
-      <c r="E119">
-        <f>A119/lambda</f>
-        <v>10.4</v>
-      </c>
-      <c r="F119">
-        <f>1+1/gamma*(1-EXP(-gamma*A119))</f>
-        <v>1.3333333333333239</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="6"/>
-        <v>4.6405750026532422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>10.5</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="7"/>
-        <v>0.71474311365081344</v>
-      </c>
-      <c r="C120">
-        <f>(y0-1)*EXP(-gamma*A120)+1</f>
-        <v>0.99999999999997913</v>
-      </c>
-      <c r="D120">
-        <f>r_*(B120-C120)^2+B120*(C120-1)</f>
-        <v>2.0342872802390288E-2</v>
-      </c>
-      <c r="E120">
-        <f>A120/lambda</f>
-        <v>10.5</v>
-      </c>
-      <c r="F120">
-        <f>1+1/gamma*(1-EXP(-gamma*A120))</f>
-        <v>1.3333333333333264</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="6"/>
-        <v>4.6741495022180679</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>10.6</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="7"/>
-        <v>0.71677740093105247</v>
-      </c>
-      <c r="C121">
-        <f>(y0-1)*EXP(-gamma*A121)+1</f>
-        <v>0.99999999999998457</v>
-      </c>
-      <c r="D121">
-        <f>r_*(B121-C121)^2+B121*(C121-1)</f>
-        <v>2.0053760155829204E-2</v>
-      </c>
-      <c r="E121">
-        <f>A121/lambda</f>
-        <v>10.6</v>
-      </c>
-      <c r="F121">
-        <f>1+1/gamma*(1-EXP(-gamma*A121))</f>
-        <v>1.3333333333333282</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="6"/>
-        <v>4.7077222570390376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>10.7</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="7"/>
-        <v>0.71878277694663539</v>
-      </c>
-      <c r="C122">
-        <f>(y0-1)*EXP(-gamma*A122)+1</f>
-        <v>0.99999999999998856</v>
-      </c>
-      <c r="D122">
-        <f>r_*(B122-C122)^2+B122*(C122-1)</f>
-        <v>1.977078163545163E-2</v>
-      </c>
-      <c r="E122">
-        <f>A122/lambda</f>
-        <v>10.7</v>
-      </c>
-      <c r="F122">
-        <f>1+1/gamma*(1-EXP(-gamma*A122))</f>
-        <v>1.3333333333333295</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="6"/>
-        <v>4.7412932922686331</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>10.8</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="7"/>
-        <v>0.72075985511018059</v>
-      </c>
-      <c r="C123">
-        <f>(y0-1)*EXP(-gamma*A123)+1</f>
-        <v>0.99999999999999156</v>
-      </c>
-      <c r="D123">
-        <f>r_*(B123-C123)^2+B123*(C123-1)</f>
-        <v>1.9493764629514573E-2</v>
-      </c>
-      <c r="E123">
-        <f>A123/lambda</f>
-        <v>10.8</v>
-      </c>
-      <c r="F123">
-        <f>1+1/gamma*(1-EXP(-gamma*A123))</f>
-        <v>1.3333333333333304</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="6"/>
-        <v>4.7748626325180696</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>10.9</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="7"/>
-        <v>0.72270923157313205</v>
-      </c>
-      <c r="C124">
-        <f>(y0-1)*EXP(-gamma*A124)+1</f>
-        <v>0.99999999999999367</v>
-      </c>
-      <c r="D124">
-        <f>r_*(B124-C124)^2+B124*(C124-1)</f>
-        <v>1.9222542563685278E-2</v>
-      </c>
-      <c r="E124">
-        <f>A124/lambda</f>
-        <v>10.9</v>
-      </c>
-      <c r="F124">
-        <f>1+1/gamma*(1-EXP(-gamma*A124))</f>
-        <v>1.3333333333333313</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="6"/>
-        <v>4.8084303018727494</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>11</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="7"/>
-        <v>0.72463148582950054</v>
-      </c>
-      <c r="C125">
-        <f>(y0-1)*EXP(-gamma*A125)+1</f>
-        <v>0.99999999999999534</v>
-      </c>
-      <c r="D125">
-        <f>r_*(B125-C125)^2+B125*(C125-1)</f>
-        <v>1.8956954649113119E-2</v>
-      </c>
-      <c r="E125">
-        <f>A125/lambda</f>
-        <v>11</v>
-      </c>
-      <c r="F125">
-        <f>1+1/gamma*(1-EXP(-gamma*A125))</f>
-        <v>1.3333333333333317</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="6"/>
-        <v>4.8419963239071482</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>11.1</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="7"/>
-        <v>0.72652718129441185</v>
-      </c>
-      <c r="C126">
-        <f>(y0-1)*EXP(-gamma*A126)+1</f>
-        <v>0.99999999999999656</v>
-      </c>
-      <c r="D126">
-        <f>r_*(B126-C126)^2+B126*(C126-1)</f>
-        <v>1.86968456426919E-2</v>
-      </c>
-      <c r="E126">
-        <f>A126/lambda</f>
-        <v>11.1</v>
-      </c>
-      <c r="F126">
-        <f>1+1/gamma*(1-EXP(-gamma*A126))</f>
-        <v>1.3333333333333321</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="6"/>
-        <v>4.875560721699201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>11.2</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="7"/>
-        <v>0.72839686585868102</v>
-      </c>
-      <c r="C127">
-        <f>(y0-1)*EXP(-gamma*A127)+1</f>
-        <v>0.99999999999999745</v>
-      </c>
-      <c r="D127">
-        <f>r_*(B127-C127)^2+B127*(C127-1)</f>
-        <v>1.8442065618844622E-2</v>
-      </c>
-      <c r="E127">
-        <f>A127/lambda</f>
-        <v>11.2</v>
-      </c>
-      <c r="F127">
-        <f>1+1/gamma*(1-EXP(-gamma*A127))</f>
-        <v>1.3333333333333326</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="6"/>
-        <v>4.9091235178441659</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>11.3</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="7"/>
-        <v>0.73024107242056546</v>
-      </c>
-      <c r="C128">
-        <f>(y0-1)*EXP(-gamma*A128)+1</f>
-        <v>0.99999999999999811</v>
-      </c>
-      <c r="D128">
-        <f>r_*(B128-C128)^2+B128*(C128-1)</f>
-        <v>1.819246975220002E-2</v>
-      </c>
-      <c r="E128">
-        <f>A128/lambda</f>
-        <v>11.3</v>
-      </c>
-      <c r="F128">
-        <f>1+1/gamma*(1-EXP(-gamma*A128))</f>
-        <v>1.3333333333333326</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="6"/>
-        <v>4.9426847344680098</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>11.4</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="7"/>
-        <v>0.73206031939578542</v>
-      </c>
-      <c r="C129">
-        <f>(y0-1)*EXP(-gamma*A129)+1</f>
-        <v>0.99999999999999856</v>
-      </c>
-      <c r="D129">
-        <f>r_*(B129-C129)^2+B129*(C129-1)</f>
-        <v>1.7947918110570879E-2</v>
-      </c>
-      <c r="E129">
-        <f>A129/lambda</f>
-        <v>11.4</v>
-      </c>
-      <c r="F129">
-        <f>1+1/gamma*(1-EXP(-gamma*A129))</f>
-        <v>1.3333333333333328</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="6"/>
-        <v>4.9762443932403491</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>11.5</v>
-      </c>
-      <c r="B130">
-        <f t="shared" si="7"/>
-        <v>0.73385511120684255</v>
-      </c>
-      <c r="C130">
-        <f>(y0-1)*EXP(-gamma*A130)+1</f>
-        <v>0.999999999999999</v>
-      </c>
-      <c r="D130">
-        <f>r_*(B130-C130)^2+B130*(C130-1)</f>
-        <v>1.7708275457679671E-2</v>
-      </c>
-      <c r="E130">
-        <f>A130/lambda</f>
-        <v>11.5</v>
-      </c>
-      <c r="F130">
-        <f>1+1/gamma*(1-EXP(-gamma*A130))</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="6"/>
-        <v>5.009802515386923</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>11.6</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="7"/>
-        <v>0.73562593875261051</v>
-      </c>
-      <c r="C131">
-        <f>(y0-1)*EXP(-gamma*A131)+1</f>
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="D131">
-        <f>r_*(B131-C131)^2+B131*(C131-1)</f>
-        <v>1.7473411065108937E-2</v>
-      </c>
-      <c r="E131">
-        <f>A131/lambda</f>
-        <v>11.6</v>
-      </c>
-      <c r="F131">
-        <f>1+1/gamma*(1-EXP(-gamma*A131))</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="6"/>
-        <v>5.043359121701652</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>11.7</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="7"/>
-        <v>0.73737327985912138</v>
-      </c>
-      <c r="C132">
-        <f>(y0-1)*EXP(-gamma*A132)+1</f>
-        <v>0.99999999999999944</v>
-      </c>
-      <c r="D132">
-        <f>r_*(B132-C132)^2+B132*(C132-1)</f>
-        <v>1.7243198532988363E-2</v>
-      </c>
-      <c r="E132">
-        <f>A132/lambda</f>
-        <v>11.7</v>
-      </c>
-      <c r="F132">
-        <f>1+1/gamma*(1-EXP(-gamma*A132))</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="6"/>
-        <v>5.0769142325583028</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>11.8</v>
-      </c>
-      <c r="B133">
-        <f t="shared" si="7"/>
-        <v>0.73909759971242028</v>
-      </c>
-      <c r="C133">
-        <f>(y0-1)*EXP(-gamma*A133)+1</f>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="D133">
-        <f>r_*(B133-C133)^2+B133*(C133-1)</f>
-        <v>1.7017515618954732E-2</v>
-      </c>
-      <c r="E133">
-        <f>A133/lambda</f>
-        <v>11.8</v>
-      </c>
-      <c r="F133">
-        <f>1+1/gamma*(1-EXP(-gamma*A133))</f>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="6"/>
-        <v>5.1104678679217441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>11.9</v>
-      </c>
-      <c r="B134">
-        <f t="shared" si="7"/>
-        <v>0.74079935127431573</v>
-      </c>
-      <c r="C134">
-        <f>(y0-1)*EXP(-gamma*A134)+1</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="D134">
-        <f>r_*(B134-C134)^2+B134*(C134-1)</f>
-        <v>1.6796244074953604E-2</v>
-      </c>
-      <c r="E134">
-        <f>A134/lambda</f>
-        <v>11.9</v>
-      </c>
-      <c r="F134">
-        <f>1+1/gamma*(1-EXP(-gamma*A134))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="6"/>
-        <v>5.1440200473588273</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>12</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="7"/>
-        <v>0.74247897568181109</v>
-      </c>
-      <c r="C135">
-        <f>(y0-1)*EXP(-gamma*A135)+1</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="D135">
-        <f>r_*(B135-C135)^2+B135*(C135-1)</f>
-        <v>1.6579269491472117E-2</v>
-      </c>
-      <c r="E135">
-        <f>A135/lambda</f>
-        <v>12</v>
-      </c>
-      <c r="F135">
-        <f>1+1/gamma*(1-EXP(-gamma*A135))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="6"/>
-        <v>5.1775707900489234</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>12.1</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="7"/>
-        <v>0.74413690263095833</v>
-      </c>
-      <c r="C136">
-        <f>(y0-1)*EXP(-gamma*A136)+1</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="D136">
-        <f>r_*(B136-C136)^2+B136*(C136-1)</f>
-        <v>1.636648114881973E-2</v>
-      </c>
-      <c r="E136">
-        <f>A136/lambda</f>
-        <v>12.1</v>
-      </c>
-      <c r="F136">
-        <f>1+1/gamma*(1-EXP(-gamma*A136))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="6"/>
-        <v>5.2111201147940953</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>12.2</v>
-      </c>
-      <c r="B137">
-        <f t="shared" si="7"/>
-        <v>0.74577355074584029</v>
-      </c>
-      <c r="C137">
-        <f>(y0-1)*EXP(-gamma*A137)+1</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D137">
-        <f>r_*(B137-C137)^2+B137*(C137-1)</f>
-        <v>1.6157771875094363E-2</v>
-      </c>
-      <c r="E137">
-        <f>A137/lambda</f>
-        <v>12.2</v>
-      </c>
-      <c r="F137">
-        <f>1+1/gamma*(1-EXP(-gamma*A137))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="6"/>
-        <v>5.2446680400289507</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>12.3</v>
-      </c>
-      <c r="B138">
-        <f t="shared" si="7"/>
-        <v>0.74738932793334978</v>
-      </c>
-      <c r="C138">
-        <f>(y0-1)*EXP(-gamma*A138)+1</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D138">
-        <f>r_*(B138-C138)^2+B138*(C138-1)</f>
-        <v>1.5953037910491078E-2</v>
-      </c>
-      <c r="E138">
-        <f>A138/lambda</f>
-        <v>12.3</v>
-      </c>
-      <c r="F138">
-        <f>1+1/gamma*(1-EXP(-gamma*A138))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="6"/>
-        <v>5.2782145838301684</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>12.4</v>
-      </c>
-      <c r="B139">
-        <f t="shared" si="7"/>
-        <v>0.74898463172439889</v>
-      </c>
-      <c r="C139">
-        <f>(y0-1)*EXP(-gamma*A139)+1</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D139">
-        <f>r_*(B139-C139)^2+B139*(C139-1)</f>
-        <v>1.5752178777633817E-2</v>
-      </c>
-      <c r="E139">
-        <f>A139/lambda</f>
-        <v>12.4</v>
-      </c>
-      <c r="F139">
-        <f>1+1/gamma*(1-EXP(-gamma*A139))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="6"/>
-        <v>5.3117597639257141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>12.5</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="7"/>
-        <v>0.75055984960216227</v>
-      </c>
-      <c r="C140">
-        <f>(y0-1)*EXP(-gamma*A140)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <f>r_*(B140-C140)^2+B140*(C140-1)</f>
-        <v>1.5555097157623977E-2</v>
-      </c>
-      <c r="E140">
-        <f>A140/lambda</f>
-        <v>12.5</v>
-      </c>
-      <c r="F140">
-        <f>1+1/gamma*(1-EXP(-gamma*A140))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="6"/>
-        <v>5.3453035977037766</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>12.6</v>
-      </c>
-      <c r="B141">
-        <f t="shared" si="7"/>
-        <v>0.75211535931792461</v>
-      </c>
-      <c r="C141">
-        <f>(y0-1)*EXP(-gamma*A141)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <f>r_*(B141-C141)^2+B141*(C141-1)</f>
-        <v>1.5361698771520407E-2</v>
-      </c>
-      <c r="E141">
-        <f>A141/lambda</f>
-        <v>12.6</v>
-      </c>
-      <c r="F141">
-        <f>1+1/gamma*(1-EXP(-gamma*A141))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="6"/>
-        <v>5.3788461022213996</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>12.7</v>
-      </c>
-      <c r="B142">
-        <f t="shared" si="7"/>
-        <v>0.75365152919507661</v>
-      </c>
-      <c r="C142">
-        <f>(y0-1)*EXP(-gamma*A142)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <f>r_*(B142-C142)^2+B142*(C142-1)</f>
-        <v>1.5171892266981048E-2</v>
-      </c>
-      <c r="E142">
-        <f>A142/lambda</f>
-        <v>12.7</v>
-      </c>
-      <c r="F142">
-        <f>1+1/gamma*(1-EXP(-gamma*A142))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="6"/>
-        <v>5.412387294212853</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143">
-        <v>12.8</v>
-      </c>
-      <c r="B143">
-        <f t="shared" si="7"/>
-        <v>0.75516871842177469</v>
-      </c>
-      <c r="C143">
-        <f>(y0-1)*EXP(-gamma*A143)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <f>r_*(B143-C143)^2+B143*(C143-1)</f>
-        <v>1.4985589109809062E-2</v>
-      </c>
-      <c r="E143">
-        <f>A143/lambda</f>
-        <v>12.8</v>
-      </c>
-      <c r="F143">
-        <f>1+1/gamma*(1-EXP(-gamma*A143))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="6"/>
-        <v>5.4459271900977404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
-        <v>12.9</v>
-      </c>
-      <c r="B144">
-        <f t="shared" si="7"/>
-        <v>0.75666727733275563</v>
-      </c>
-      <c r="C144">
-        <f>(y0-1)*EXP(-gamma*A144)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <f>r_*(B144-C144)^2+B144*(C144-1)</f>
-        <v>1.4802703480163515E-2</v>
-      </c>
-      <c r="E144">
-        <f>A144/lambda</f>
-        <v>12.9</v>
-      </c>
-      <c r="F144">
-        <f>1+1/gamma*(1-EXP(-gamma*A144))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G144">
-        <f t="shared" ref="G144:G147" si="8">F144/(1-B144)</f>
-        <v>5.4794658059888492</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>13</v>
-      </c>
-      <c r="B145">
-        <f t="shared" si="7"/>
-        <v>0.75814754768077197</v>
-      </c>
-      <c r="C145">
-        <f>(y0-1)*EXP(-gamma*A145)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <f>r_*(B145-C145)^2+B145*(C145-1)</f>
-        <v>1.4623152173206116E-2</v>
-      </c>
-      <c r="E145">
-        <f>A145/lambda</f>
-        <v>13</v>
-      </c>
-      <c r="F145">
-        <f>1+1/gamma*(1-EXP(-gamma*A145))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="8"/>
-        <v>5.513003157699754</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146">
-        <v>13.1</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="7"/>
-        <v>0.75960986289809262</v>
-      </c>
-      <c r="C146">
-        <f>(y0-1)*EXP(-gamma*A146)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <f>r_*(B146-C146)^2+B146*(C146-1)</f>
-        <v>1.4446854503968456E-2</v>
-      </c>
-      <c r="E146">
-        <f>A146/lambda</f>
-        <v>13.1</v>
-      </c>
-      <c r="F146">
-        <f>1+1/gamma*(1-EXP(-gamma*A146))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="8"/>
-        <v>5.5465392607521995</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
-        <v>13.2</v>
-      </c>
-      <c r="B147">
-        <f t="shared" si="7"/>
-        <v>0.76105454834848951</v>
-      </c>
-      <c r="C147">
-        <f>(y0-1)*EXP(-gamma*A147)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <f>r_*(B147-C147)^2+B147*(C147-1)</f>
-        <v>1.4273732216236084E-2</v>
-      </c>
-      <c r="E147">
-        <f>A147/lambda</f>
-        <v>13.2</v>
-      </c>
-      <c r="F147">
-        <f>1+1/gamma*(1-EXP(-gamma*A147))</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="8"/>
-        <v>5.5800741303832417</v>
+        <v>8.9662102111582307</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:G2" si="0">AVERAGE(B6,B9,B12,B15)</f>
+        <v>0.8506185724955474</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>0.79917043740573157</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.74922518554767148</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.77714303424904252</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.6737958807501202</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.69680306905370837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>SQRT((SUMSQ(B6,B9,B12,B15)/COUNT(B6,B9,B12,B15)-B2*B2)/(COUNT(B6,B9,B12,B15)-1))</f>
+        <v>1.3984909129208186E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3" si="1">SQRT((SUMSQ(C6,C9,C12,C15)/COUNT(C6,C9,C12,C15)-C2*C2)/(COUNT(C6,C9,C12,C15)-1))</f>
+        <v>4.7888386123679787E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">SQRT((SUMSQ(D6,D9,D12,D15)/COUNT(D6,D9,D12,D15)-D2*D2)/(COUNT(D6,D9,D12,D15)-1))</f>
+        <v>4.4307152760786651E-2</v>
+      </c>
+      <c r="E3">
+        <f>SQRT((SUMSQ(E6,E9,E12,E15)/COUNT(E6,E9,E12,E15)-E2*E2)/(COUNT(E6,E9,E12,E15)-1))</f>
+        <v>8.6035864982217519E-3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="3">SQRT((SUMSQ(F6,F9,F12,F15)/COUNT(F6,F9,F12,F15)-F2*F2)/(COUNT(F6,F9,F12,F15)-1))</f>
+        <v>4.6782336913003004E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>3.7979539641944449E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>447</v>
+      </c>
+      <c r="C4" s="5">
+        <v>293</v>
+      </c>
+      <c r="D4" s="5">
+        <v>319</v>
+      </c>
+      <c r="E4" s="5">
+        <v>358</v>
+      </c>
+      <c r="F4" s="5">
+        <v>249</v>
+      </c>
+      <c r="G4" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="6">
+        <v>517</v>
+      </c>
+      <c r="C5" s="6">
+        <v>390</v>
+      </c>
+      <c r="D5" s="6">
+        <v>402</v>
+      </c>
+      <c r="E5" s="6">
+        <v>446</v>
+      </c>
+      <c r="F5" s="6">
+        <v>367</v>
+      </c>
+      <c r="G5" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6">
+        <f>B4/B5</f>
+        <v>0.8646034816247582</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:G6" si="4">C4/C5</f>
+        <v>0.75128205128205128</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>0.79353233830845771</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>0.80269058295964124</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>0.67847411444141692</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>0.6588235294117647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>338</v>
+      </c>
+      <c r="C7" s="7">
+        <v>360</v>
+      </c>
+      <c r="D7" s="7">
+        <v>172</v>
+      </c>
+      <c r="E7" s="5">
+        <v>166</v>
+      </c>
+      <c r="F7" s="7">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" thickBot="1">
+      <c r="B8" s="8">
+        <v>404</v>
+      </c>
+      <c r="C8" s="8">
+        <v>425</v>
+      </c>
+      <c r="D8" s="8">
+        <v>244</v>
+      </c>
+      <c r="E8" s="6">
+        <v>215</v>
+      </c>
+      <c r="F8" s="8">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9">
+        <f>B7/B8</f>
+        <v>0.8366336633663366</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9" si="5">C7/C8</f>
+        <v>0.84705882352941175</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="6">D7/D8</f>
+        <v>0.70491803278688525</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="7">E7/E8</f>
+        <v>0.77209302325581397</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="8">F7/F8</f>
+        <v>0.66911764705882348</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="9">G7/G8</f>
+        <v>0.73478260869565215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12">
+        <f t="shared" ref="E12" si="10">E10/E11</f>
+        <v>0.76683937823834192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1">
+      <c r="E14" s="8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15">
+        <f t="shared" ref="E15" si="11">E13/E14</f>
+        <v>0.76694915254237284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>7.7610492924906696E-3</v>
+      </c>
+      <c r="C16">
+        <v>3.3863145437137698E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.106535349080743</v>
+      </c>
+      <c r="E16">
+        <v>0.23979147557831501</v>
+      </c>
+      <c r="F16">
+        <v>0.41701127009755101</v>
+      </c>
+      <c r="G16">
+        <v>0.52725357871128997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="12">theta+(1-theta)*(1-B16)</f>
+        <v>0.99611947535375467</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="12"/>
+        <v>0.98306842728143118</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>0.94673232545962849</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="12"/>
+        <v>0.88010426221084248</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="12"/>
+        <v>0.79149436495122449</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="12"/>
+        <v>0.73637321064435501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <f>B2/($B$2/$B$17)</f>
+        <v>0.99611947535375467</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:G18" si="13">C2/($B$2/$B$17)</f>
+        <v>0.93587097974044653</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="13"/>
+        <v>0.87738244012238831</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="13"/>
+        <v>0.91007572204759668</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>0.78905072253385833</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="13"/>
+        <v>0.81599336061322525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>